--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42ECFF3-60FE-4A6A-AB87-AC31DE29833D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEEF34D-9F4C-4B1C-A761-582F42D33B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4716" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="1440" windowWidth="8730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>對話內容</t>
   </si>
@@ -33,19 +33,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>嗨，你好嗎？</t>
-  </si>
-  <si>
     <t>小明</t>
   </si>
   <si>
-    <t>我很好，謝謝你關心。</t>
-  </si>
-  <si>
     <t>小華</t>
-  </si>
-  <si>
-    <t>今天天氣真好呢。</t>
   </si>
   <si>
     <t>章節一對話1</t>
@@ -58,6 +49,21 @@
   <si>
     <t>章節一對話3</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽媽</t>
+  </si>
+  <si>
+    <t>該起床囉！最近越睡越晚，是不是偷熬夜了？</t>
+  </si>
+  <si>
+    <t>瑪格麗特</t>
+  </si>
+  <si>
+    <t>嗯....</t>
+  </si>
+  <si>
+    <t>我換個衣服就來....</t>
   </si>
 </sst>
 </file>
@@ -1011,16 +1017,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1031,37 +1037,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1075,13 +1081,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1092,37 +1098,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEEF34D-9F4C-4B1C-A761-582F42D33B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F3FAC-7F24-40AB-A3C2-19EA4E7DFD1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1440" windowWidth="8730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="1440" windowWidth="8736" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
-    <sheet name="章節一對話" sheetId="2" r:id="rId2"/>
+    <sheet name="窗戶對話" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>對話內容</t>
   </si>
@@ -30,24 +30,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>小明</t>
-  </si>
-  <si>
-    <t>小華</t>
-  </si>
-  <si>
-    <t>章節一對話1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>章節一對話2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>章節一對話3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -64,6 +46,14 @@
   </si>
   <si>
     <t>我換個衣服就來....</t>
+  </si>
+  <si>
+    <t>明明是吃早餐的時間…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面天空卻漆黑無比…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1017,16 +1007,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1037,37 +1027,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1079,15 +1069,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1098,37 +1092,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F3FAC-7F24-40AB-A3C2-19EA4E7DFD1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A0174-B71B-4192-A227-755537815040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1440" windowWidth="8736" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
-    <sheet name="窗戶對話" sheetId="2" r:id="rId2"/>
+    <sheet name="畫面出現" sheetId="4" r:id="rId2"/>
+    <sheet name="窗戶對話" sheetId="2" r:id="rId3"/>
+    <sheet name="衣櫃對話" sheetId="5" r:id="rId4"/>
+    <sheet name="日記對話" sheetId="7" r:id="rId5"/>
+    <sheet name="照片對話" sheetId="8" r:id="rId6"/>
+    <sheet name="蠟燭對話" sheetId="9" r:id="rId7"/>
+    <sheet name="畫對話" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>對話內容</t>
   </si>
@@ -53,6 +59,51 @@
   </si>
   <si>
     <t>外面天空卻漆黑無比…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>虧我還準備了煎培根與全麥麵包，真是的，再賴床我可就不管你了喔</t>
+  </si>
+  <si>
+    <t>媽媽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>...真是的，睡晚一點也不行</t>
+  </si>
+  <si>
+    <t>這是我的衣服？好華麗。</t>
+  </si>
+  <si>
+    <t>是否更換服裝？</t>
+  </si>
+  <si>
+    <t>對話框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>油彩畫....流淚了？</t>
+  </si>
+  <si>
+    <t>不管了，先看看這是什麼。</t>
+  </si>
+  <si>
+    <t>哇！字....消失了！</t>
+  </si>
+  <si>
+    <t>只剩下8/28......是日記本嗎？但怎麼會沒紀錄呢。</t>
+  </si>
+  <si>
+    <t>好奇怪，先收起來吧。</t>
+  </si>
+  <si>
+    <t>這是哪個地區的衣服嗎?</t>
+  </si>
+  <si>
+    <t>怎麼碎成這樣了......</t>
+  </si>
+  <si>
+    <t>終於亮了許多。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +270,25 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -646,8 +716,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,7 +1090,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1068,11 +1150,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0312559-A36E-43C5-A0C2-0218284A8293}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1119,4 +1251,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CCA60D-C2BB-4E70-A499-3E8D7DDAD9AE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431C17E7-5C7D-4476-9C45-C86A2516A2EF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B71F8-5C66-4198-8486-4D7386CC4E20}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E87DB-3541-4770-9C53-9D345577998A}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF10AC-1295-449D-92FF-3CCBA166E1B7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A0174-B71B-4192-A227-755537815040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF9E01-2B23-461F-B8A8-CCCC695C10DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1414,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E87DB-3541-4770-9C53-9D345577998A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1443,9 +1443,6 @@
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF9E01-2B23-461F-B8A8-CCCC695C10DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F742027-E47D-4BBC-9101-335A9768340F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="照片對話" sheetId="8" r:id="rId6"/>
     <sheet name="蠟燭對話" sheetId="9" r:id="rId7"/>
     <sheet name="畫對話" sheetId="6" r:id="rId8"/>
+    <sheet name="未開門對話" sheetId="10" r:id="rId9"/>
+    <sheet name="開門對話" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>對話內容</t>
   </si>
@@ -104,6 +106,72 @@
   </si>
   <si>
     <t>終於亮了許多。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是不是還有東西沒有找齊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要不要再找看看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>門開了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?!</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,6 +355,27 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
@@ -716,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +819,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,13 +1181,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,6 +1239,44 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1307,7 +1438,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E87DB-3541-4770-9C53-9D345577998A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1498,4 +1629,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F5637-9F08-4B1E-A0A2-E92A6EDA09DA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F742027-E47D-4BBC-9101-335A9768340F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B01F2-F741-48C8-B968-A5EC13E77895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1305" windowWidth="13365" windowHeight="11385" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>對話內容</t>
   </si>
@@ -44,16 +44,7 @@
     <t>媽媽</t>
   </si>
   <si>
-    <t>該起床囉！最近越睡越晚，是不是偷熬夜了？</t>
-  </si>
-  <si>
     <t>瑪格麗特</t>
-  </si>
-  <si>
-    <t>嗯....</t>
-  </si>
-  <si>
-    <t>我換個衣服就來....</t>
   </si>
   <si>
     <t>明明是吃早餐的時間…</t>
@@ -64,26 +55,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>虧我還準備了煎培根與全麥麵包，真是的，再賴床我可就不管你了喔</t>
-  </si>
-  <si>
     <t>媽媽</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>...真是的，睡晚一點也不行</t>
-  </si>
-  <si>
-    <t>這是我的衣服？好華麗。</t>
-  </si>
-  <si>
-    <t>是否更換服裝？</t>
-  </si>
-  <si>
-    <t>對話框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>油彩畫....流淚了？</t>
   </si>
   <si>
@@ -93,31 +68,71 @@
     <t>哇！字....消失了！</t>
   </si>
   <si>
-    <t>只剩下8/28......是日記本嗎？但怎麼會沒紀錄呢。</t>
-  </si>
-  <si>
     <t>好奇怪，先收起來吧。</t>
-  </si>
-  <si>
-    <t>這是哪個地區的衣服嗎?</t>
-  </si>
-  <si>
-    <t>怎麼碎成這樣了......</t>
-  </si>
-  <si>
-    <t>終於亮了許多。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>是不是還有東西沒有找齊</t>
+      <t>只剩下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8/26......</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是日記本嗎？但怎麼會沒紀錄呢。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像還有些沒做的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>再找看看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>快去吃早餐吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>個人是誰</t>
     </r>
     <r>
       <rPr>
@@ -135,11 +150,20 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>要不要再找看看</t>
+      <t>碎成這樣了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>看不清</t>
     </r>
     <r>
       <rPr>
@@ -148,30 +172,28 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>?</t>
+      <t>......</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>門開了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>?!</t>
-    </r>
+    <t>換件衣服去吃飯吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>這樣亮多了。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我換個衣服就來....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>該起床囉！最近越睡越晚，是不是偷熬夜啦~</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +400,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -805,16 +833,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +847,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,17 +1215,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1210,29 +1244,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1246,13 +1280,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1263,15 +1297,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1285,43 +1319,39 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1335,16 +1365,16 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1355,26 +1385,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1389,12 +1419,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1405,27 +1435,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1438,12 +1460,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1454,37 +1476,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1499,12 +1521,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1515,26 +1537,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1548,12 +1570,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1564,15 +1586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1586,12 +1608,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1602,26 +1624,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1636,12 +1658,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1652,26 +1674,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B01F2-F741-48C8-B968-A5EC13E77895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0825D7-35F0-4483-82E5-95B19327C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1305" windowWidth="13365" windowHeight="11385" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1305" windowWidth="13365" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -1280,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1418,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CCA60D-C2BB-4E70-A499-3E8D7DDAD9AE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0825D7-35F0-4483-82E5-95B19327C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3A665-6B0B-4A4B-A491-0DBD2E7CF223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1305" windowWidth="13365" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="876" yWindow="1308" windowWidth="13368" windowHeight="11388" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
   <si>
     <t>對話內容</t>
   </si>
@@ -194,6 +194,26 @@
   </si>
   <si>
     <t>該起床囉！最近越睡越晚，是不是偷熬夜啦~</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插分圖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音檔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1213,19 +1233,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1235,8 +1255,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1246,8 +1272,14 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1257,8 +1289,14 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1267,6 +1305,12 @@
       </c>
       <c r="C4" t="s">
         <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1278,15 +1322,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1340,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1316,15 +1366,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0312559-A36E-43C5-A0C2-0218284A8293}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1334,8 +1384,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1344,7 +1400,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1362,19 +1418,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1384,8 +1440,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1396,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1416,15 +1478,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CCA60D-C2BB-4E70-A499-3E8D7DDAD9AE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1434,8 +1496,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1446,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="C3" s="1"/>
     </row>
   </sheetData>
@@ -1457,15 +1525,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431C17E7-5C7D-4476-9C45-C86A2516A2EF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1475,8 +1543,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1487,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1498,7 +1572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1518,15 +1592,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B71F8-5C66-4198-8486-4D7386CC4E20}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1536,8 +1610,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1548,7 +1628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1567,15 +1647,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E87DB-3541-4770-9C53-9D345577998A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1585,8 +1665,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1605,15 +1691,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF10AC-1295-449D-92FF-3CCBA166E1B7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1623,8 +1709,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1635,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1655,15 +1747,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F5637-9F08-4B1E-A0A2-E92A6EDA09DA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1673,8 +1765,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1682,7 +1780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3A665-6B0B-4A4B-A491-0DBD2E7CF223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83962F33-A3CB-42BA-9B92-C1EF9272C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="1308" windowWidth="13368" windowHeight="11388" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="16785" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t>對話內容</t>
   </si>
@@ -209,11 +209,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>01.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.png</t>
+    <t>sigh1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma1.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1235,14 +1235,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1272,9 +1272,6 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -1307,7 +1304,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1324,11 +1321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1372,7 +1369,7 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1424,10 +1421,10 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1484,7 +1481,7 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1531,7 +1528,7 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1598,7 +1595,7 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1653,7 +1650,7 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1697,7 +1694,7 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1753,7 +1750,7 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83962F33-A3CB-42BA-9B92-C1EF9272C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C166F43-F9E3-4518-AAC4-9EA031B0B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="16785" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-315" yWindow="1065" windowWidth="16785" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>對話內容</t>
   </si>
@@ -103,46 +103,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>好像還有些沒做的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>再找看看</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>快去吃早餐吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>這</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="1"/>
-      </rPr>
-      <t>個人是誰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -177,10 +138,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>換件衣服去吃飯吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>這樣亮多了。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -209,11 +166,74 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>sigh1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma1.png</t>
+    <t>睡衣-嘆氣.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣-一般.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>無.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣-疑惑.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣-驚訝.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>是誰....</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像還有些沒做的，再找看看吧。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑪格麗特</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去吃飯吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>換好衣服了</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1235,14 +1255,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1256,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1270,10 +1291,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1284,13 +1308,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1301,13 +1322,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1322,10 +1340,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1338,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1352,7 +1373,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1418,7 +1442,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1438,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1453,6 +1477,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1464,6 +1491,9 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1478,10 +1508,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1494,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1505,14 +1538,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="1"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1525,10 +1572,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1541,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1556,6 +1606,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1568,6 +1621,9 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -1578,6 +1634,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1592,10 +1651,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1608,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1622,7 +1684,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1633,7 +1698,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1646,11 +1714,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E87DB-3541-4770-9C53-9D345577998A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1663,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1677,7 +1749,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1691,10 +1766,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1707,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1722,6 +1800,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1733,6 +1814,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1747,10 +1831,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1763,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1774,16 +1861,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C166F43-F9E3-4518-AAC4-9EA031B0B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4DE788-80FD-479D-942E-3C00D829A972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="1065" windowWidth="16785" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="16785" windowHeight="11820" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>快去吃早餐吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -162,10 +158,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1-1.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>睡衣-嘆氣.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -221,10 +213,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>一般.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>瑪格麗特</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -234,6 +222,18 @@
   </si>
   <si>
     <t>換好衣服了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家再等了，快去吃早餐吧!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>開心.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1291,13 +1291,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1322,10 +1322,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1340,12 +1340,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1373,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1441,14 +1441,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1462,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1479,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1493,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1538,13 +1539,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1552,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1591,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1608,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1622,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1636,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1670,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1684,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1698,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E87DB-3541-4770-9C53-9D345577998A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1735,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1749,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1785,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1802,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1816,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1861,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4DE788-80FD-479D-942E-3C00D829A972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C796EA-A8F1-4081-9099-183275644C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="16785" windowHeight="11820" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="16785" windowHeight="11820" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>對話內容</t>
   </si>
@@ -103,6 +103,188 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>這樣亮多了。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我換個衣服就來....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>該起床囉！最近越睡越晚，是不是偷熬夜啦~</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插分圖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音檔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣-嘆氣.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣-一般.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>無.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣-疑惑.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣-驚訝.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像還有些沒做的，再找看看吧。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑪格麗特</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去吃飯吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>換好衣服了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家再等了，快去吃早餐吧!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>開心.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-12.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-13.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>是....</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1-14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.mp3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-15.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-17.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -120,7 +302,7 @@
         <rFont val="Microsoft JhengHei"/>
         <family val="1"/>
       </rPr>
-      <t>看不清</t>
+      <t>看不清是誰</t>
     </r>
     <r>
       <rPr>
@@ -133,115 +315,15 @@
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>這樣亮多了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗯....</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我換個衣服就來....</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>該起床囉！最近越睡越晚，是不是偷熬夜啦~</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插分圖</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>音檔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡衣-嘆氣.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡衣-一般.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>無.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡衣-疑惑.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡衣-驚訝.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>這</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="1"/>
-      </rPr>
-      <t>是誰....</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>好像還有些沒做的，再找看看吧。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑪格麗特</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>去吃飯吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>換好衣服了</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大家再等了，快去吃早餐吧!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>開心.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +528,27 @@
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="33">
@@ -873,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +999,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1291,13 +1400,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1308,10 +1417,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1322,10 +1434,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1455,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1359,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1373,10 +1488,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1406,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1441,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1463,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1480,7 +1598,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1494,7 +1615,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1509,12 +1633,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1528,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1539,13 +1664,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1553,13 +1681,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1573,12 +1704,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1592,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1609,7 +1741,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1623,7 +1758,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1637,7 +1775,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1651,13 +1792,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B71F8-5C66-4198-8486-4D7386CC4E20}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1671,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" ht="19.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1685,10 +1827,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1699,10 +1844,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1716,13 +1864,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1736,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1750,10 +1899,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1767,12 +1919,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1786,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1803,7 +1956,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1817,7 +1973,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1851,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1862,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C796EA-A8F1-4081-9099-183275644C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B094D8-24BB-4E07-B36E-FB70ED50B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="16785" windowHeight="11820" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="16785" windowHeight="11820" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>對話內容</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>好像還有些沒做的，再找看看吧。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>瑪格麗特</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -313,6 +309,14 @@
       </rPr>
       <t>......</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>再找看看吧。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像還有些沒做的，</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1423,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1440,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1488,13 +1492,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1601,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1618,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1664,16 +1668,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1681,16 +1685,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1748,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1761,7 +1765,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1778,7 +1782,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B71F8-5C66-4198-8486-4D7386CC4E20}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1827,13 +1831,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1844,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1976,7 +1980,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1990,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F5637-9F08-4B1E-A0A2-E92A6EDA09DA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2021,11 +2025,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="6"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B094D8-24BB-4E07-B36E-FB70ED50B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CBB10-62EE-42B8-86E8-C07658A3D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1530" windowWidth="16785" windowHeight="11820" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,23 @@
     <sheet name="畫對話" sheetId="6" r:id="rId8"/>
     <sheet name="未開門對話" sheetId="10" r:id="rId9"/>
     <sheet name="開門對話" sheetId="11" r:id="rId10"/>
+    <sheet name="方畫對話" sheetId="12" r:id="rId11"/>
+    <sheet name="方畫對話2.0" sheetId="17" r:id="rId12"/>
+    <sheet name="長畫對話" sheetId="13" r:id="rId13"/>
+    <sheet name="長畫對話2.0" sheetId="18" r:id="rId14"/>
+    <sheet name="長畫(直)對話" sheetId="14" r:id="rId15"/>
+    <sheet name="長畫(直)對話2.0" sheetId="19" r:id="rId16"/>
+    <sheet name="妹妹門" sheetId="15" r:id="rId17"/>
+    <sheet name="瑪格麗特門" sheetId="16" r:id="rId18"/>
+    <sheet name="報紙(地)" sheetId="20" r:id="rId19"/>
+    <sheet name="報紙(桌)" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="61">
   <si>
     <t>對話內容</t>
   </si>
@@ -319,6 +329,74 @@
     <t>好像還有些沒做的，</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>....這是我畫的?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不記得了....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑惑.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘆氣.png</t>
+  </si>
+  <si>
+    <t>「花」</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>童樂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>「審視眼」...瑪格麗特 著</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般.Png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹妹已經在客廳等了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家都在客廳等了，快去吃飯吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>「××市國二男生疑似不堪父親長期酗酒家暴，偕小二弟弟在家燒炭自盡....」</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>「社會案件——狼父多次性侵繼女，女童年僅8歲....」</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +631,19 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -980,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1100,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,7 +1463,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1459,7 +1553,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1499,6 +1593,466 @@
       </c>
       <c r="E2" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDF6ABD-DED7-4F32-A64C-CFFAC755F298}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F70044B-C109-48E7-A1BC-0E386A1C7D76}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F50C7A-45CB-4617-B1D7-F4DF4D1E9358}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025B337B-BFA2-48E8-BC1A-4B3994A5CBD4}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B9D0B-A0BE-4AD2-8DC7-C45457C2E78C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C1AFE-577D-4D0E-8A3F-ADBE32BEA910}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C19FA-B0C2-4FDD-83A9-D2CCA2EB3129}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFD704-59A4-42D2-BF1C-61A209CEAA9A}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1556,6 +2110,53 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1868,7 +2469,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1923,7 +2524,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1994,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F5637-9F08-4B1E-A0A2-E92A6EDA09DA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CBB10-62EE-42B8-86E8-C07658A3D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D118B879-E2E5-447D-9A53-66FD501F2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="1170" windowWidth="21165" windowHeight="14490" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="瑪格麗特門" sheetId="16" r:id="rId18"/>
     <sheet name="報紙(地)" sheetId="20" r:id="rId19"/>
     <sheet name="報紙(桌)" sheetId="21" r:id="rId20"/>
+    <sheet name="全家福" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="67">
   <si>
     <t>對話內容</t>
   </si>
@@ -395,6 +396,30 @@
   </si>
   <si>
     <t>「社會案件——狼父多次性侵繼女，女童年僅8歲....」</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>....真過分</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲傷.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是我們全家人的合照</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>總覺得有些陌生</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1918,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C19FA-B0C2-4FDD-83A9-D2CCA2EB3129}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1969,7 +1994,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1999,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -2016,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2053,6 +2078,20 @@
       </c>
       <c r="D2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2115,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2152,6 +2191,84 @@
       </c>
       <c r="D2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D118B879-E2E5-447D-9A53-66FD501F2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22B635-AC6A-4915-AA94-FE832595A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="1170" windowWidth="21165" windowHeight="14490" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13890" yWindow="855" windowWidth="21165" windowHeight="14490" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,18 @@
     <sheet name="報紙(地)" sheetId="20" r:id="rId19"/>
     <sheet name="報紙(桌)" sheetId="21" r:id="rId20"/>
     <sheet name="全家福" sheetId="22" r:id="rId21"/>
+    <sheet name="客廳劇情" sheetId="23" r:id="rId22"/>
+    <sheet name="餐桌" sheetId="26" r:id="rId23"/>
+    <sheet name="鐘" sheetId="27" r:id="rId24"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId25"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="89">
   <si>
     <t>對話內容</t>
   </si>
@@ -395,10 +400,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>「社會案件——狼父多次性侵繼女，女童年僅8歲....」</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>....</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -420,6 +421,117 @@
   </si>
   <si>
     <t>總覺得有些陌生</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>社會案件——8歲女童疑遭繼親長期性侵，母親報案後失聯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【本報訊】北區發生疑似家內性侵事件，一名8歲女童疑遭繼親不當對待，母親在陪同女童赴校通報後失聯。警方懷疑其母可能因協助報案而遭報復，目前仍在積極追查下落。</t>
+  </si>
+  <si>
+    <t>據社福人員指出，女童身心狀況不穩，曾反覆提及「不能說出去就能得到糖」等語句，引起輔導單位高度關注。目前女童已安置於保護機構中，並接受心理輔導....</t>
+  </si>
+  <si>
+    <t>璐璐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>終於醒了呢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>姊姊，早餐要冷掉啦！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有睡飽就好，快吃飯吧。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(這種溫馨的感覺....真好。)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是...紙板？</t>
+  </si>
+  <si>
+    <t>說什麼傻話呢，再不趁熱吃就涼了啊。</t>
+  </si>
+  <si>
+    <t>...?</t>
+  </si>
+  <si>
+    <t>驚訝.png</t>
+  </si>
+  <si>
+    <t>明明都是些不能吃的東西⋯⋯</t>
+  </si>
+  <si>
+    <t>好奇怪....</t>
+  </si>
+  <si>
+    <t>現在還不需要找爸爸。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在還不需要找媽媽。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>時鐘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（靜止）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>....</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>對話內容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>壞掉了嗎？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥弄看看針的方向⋯⋯</t>
+  </si>
+  <si>
+    <t>上面的花，好熟悉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -667,6 +779,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -1096,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1267,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,7 +1923,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="D4" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1943,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C19FA-B0C2-4FDD-83A9-D2CCA2EB3129}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2041,15 +2189,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2074,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2084,14 +2232,36 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2327,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2201,10 +2371,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2388,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2251,7 +2421,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2265,10 +2435,415 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A2509-8A8A-45F6-9B11-CB3310BAAB40}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36BCF8-04A4-4B1B-B46B-A8D91C63607E}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3216,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\unity\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22B635-AC6A-4915-AA94-FE832595A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3899D4A-DFBC-43BF-BFA4-BEF7A58D645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="855" windowWidth="21165" windowHeight="14490" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -35,17 +35,23 @@
     <sheet name="報紙(桌)" sheetId="21" r:id="rId20"/>
     <sheet name="全家福" sheetId="22" r:id="rId21"/>
     <sheet name="客廳劇情" sheetId="23" r:id="rId22"/>
-    <sheet name="餐桌" sheetId="26" r:id="rId23"/>
-    <sheet name="鐘" sheetId="27" r:id="rId24"/>
-    <sheet name="爸爸房" sheetId="24" r:id="rId25"/>
-    <sheet name="媽媽房" sheetId="25" r:id="rId26"/>
+    <sheet name="餐桌" sheetId="30" r:id="rId23"/>
+    <sheet name="用餐劇情" sheetId="29" r:id="rId24"/>
+    <sheet name="鐘" sheetId="27" r:id="rId25"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId26"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
   <si>
     <t>對話內容</t>
   </si>
@@ -534,6 +540,34 @@
     <t>上面的花，好熟悉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>大家都回房間後，餐盤裡的紙板也跟著消失了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⋯⋯</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好詭異</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -542,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,6 +842,35 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1235,7 +1298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,6 +1339,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,9 +1406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1377,7 +1446,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1483,7 +1552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1625,7 +1694,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2540,17 +2609,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36BCF8-04A4-4B1B-B46B-A8D91C63607E}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2577,11 +2645,11 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
+      <c r="C2" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2591,66 +2659,10 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>75</v>
+      <c r="C3" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2661,6 +2673,128 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3701F9-10A6-4A7C-B5B3-4CD68C1D595E}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2752,11 +2886,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2802,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\unity\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3899D4A-DFBC-43BF-BFA4-BEF7A58D645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC22F9E8-9476-43C6-9EA7-36D771DAC963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="660" windowWidth="21165" windowHeight="14490" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -35,23 +35,18 @@
     <sheet name="報紙(桌)" sheetId="21" r:id="rId20"/>
     <sheet name="全家福" sheetId="22" r:id="rId21"/>
     <sheet name="客廳劇情" sheetId="23" r:id="rId22"/>
-    <sheet name="餐桌" sheetId="30" r:id="rId23"/>
-    <sheet name="用餐劇情" sheetId="29" r:id="rId24"/>
+    <sheet name="用餐劇情" sheetId="29" r:id="rId23"/>
+    <sheet name="餐桌" sheetId="30" r:id="rId24"/>
     <sheet name="鐘" sheetId="27" r:id="rId25"/>
     <sheet name="爸爸房" sheetId="24" r:id="rId26"/>
     <sheet name="媽媽房" sheetId="25" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="94">
   <si>
     <t>對話內容</t>
   </si>
@@ -566,6 +561,18 @@
   </si>
   <si>
     <t>好詭異</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1406,9 +1413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1446,7 +1453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1552,7 +1559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1694,7 +1701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1942,7 +1949,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1992,7 +1999,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D2:D4"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2261,7 +2268,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2331,6 +2338,9 @@
       </c>
       <c r="D5" t="s">
         <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2456,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2495,6 +2505,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -2508,6 +2521,9 @@
       </c>
       <c r="D3" t="s">
         <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2609,74 +2625,10 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3701F9-10A6-4A7C-B5B3-4CD68C1D595E}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2794,12 +2746,77 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2883,6 +2900,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC22F9E8-9476-43C6-9EA7-36D771DAC963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E9BD8-9BB0-4463-9E6D-0B9ED14A5194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="660" windowWidth="21165" windowHeight="14490" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="21165" windowHeight="14490" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -31,22 +31,24 @@
     <sheet name="長畫(直)對話2.0" sheetId="19" r:id="rId16"/>
     <sheet name="妹妹門" sheetId="15" r:id="rId17"/>
     <sheet name="瑪格麗特門" sheetId="16" r:id="rId18"/>
-    <sheet name="報紙(地)" sheetId="20" r:id="rId19"/>
-    <sheet name="報紙(桌)" sheetId="21" r:id="rId20"/>
-    <sheet name="全家福" sheetId="22" r:id="rId21"/>
-    <sheet name="客廳劇情" sheetId="23" r:id="rId22"/>
-    <sheet name="用餐劇情" sheetId="29" r:id="rId23"/>
-    <sheet name="餐桌" sheetId="30" r:id="rId24"/>
-    <sheet name="鐘" sheetId="27" r:id="rId25"/>
-    <sheet name="爸爸房" sheetId="24" r:id="rId26"/>
-    <sheet name="媽媽房" sheetId="25" r:id="rId27"/>
+    <sheet name="隱藏門" sheetId="31" r:id="rId19"/>
+    <sheet name="報紙(地)" sheetId="20" r:id="rId20"/>
+    <sheet name="報紙(桌)" sheetId="21" r:id="rId21"/>
+    <sheet name="全家福" sheetId="22" r:id="rId22"/>
+    <sheet name="客廳劇情" sheetId="23" r:id="rId23"/>
+    <sheet name="用餐劇情" sheetId="29" r:id="rId24"/>
+    <sheet name="餐桌" sheetId="30" r:id="rId25"/>
+    <sheet name="鐘" sheetId="27" r:id="rId26"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId27"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId28"/>
+    <sheet name="工作表2" sheetId="32" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="106">
   <si>
     <t>對話內容</t>
   </si>
@@ -429,12 +431,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>【本報訊】北區發生疑似家內性侵事件，一名8歲女童疑遭繼親不當對待，母親在陪同女童赴校通報後失聯。警方懷疑其母可能因協助報案而遭報復，目前仍在積極追查下落。</t>
-  </si>
-  <si>
-    <t>據社福人員指出，女童身心狀況不穩，曾反覆提及「不能說出去就能得到糖」等語句，引起輔導單位高度關注。目前女童已安置於保護機構中，並接受心理輔導....</t>
-  </si>
-  <si>
     <t>璐璐</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -573,6 +569,60 @@
   </si>
   <si>
     <t>2-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【本報訊】北區發生疑似家內性侵事件，一名8歲女童疑遭繼親不當對待，母親在陪同女童赴校通報後失聯。警方懷疑其母可能因協助報案而遭報復，目前仍在積極追查下落。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5.mp3</t>
+  </si>
+  <si>
+    <t>2-5.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-7.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>這間房間看著真奇怪....</t>
+  </si>
+  <si>
+    <t>2-9.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽媽-一般.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-張嘴.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸-一般.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>社福人員表示，女童身心狀況不穩，曾反覆流露「不應該說的」等自責話語，近日更疑因高度壓力及創傷下而想不開，目前情況未卜。案件已列為高度保護，相關單位正全力追蹤並加強危機處理。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(鎖著)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked Door.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1802,7 +1852,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1855,7 +1905,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1892,6 +1942,9 @@
       </c>
       <c r="D2" t="s">
         <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +2002,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1986,6 +2039,9 @@
       </c>
       <c r="D2" t="s">
         <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2055,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2048,6 +2104,9 @@
       <c r="D3" t="s">
         <v>51</v>
       </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -2061,6 +2120,9 @@
       </c>
       <c r="D4" t="s">
         <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2136,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2111,6 +2173,9 @@
       </c>
       <c r="D2" t="s">
         <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2233,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2205,6 +2270,9 @@
       </c>
       <c r="D2" t="s">
         <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2286,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2256,6 +2324,9 @@
       <c r="D2" t="s">
         <v>56</v>
       </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2264,16 +2335,17 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C01CA3-CB72-4288-9900-067F02FD8120}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2298,49 +2370,27 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2402,11 +2452,97 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2453,7 +2589,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2462,11 +2598,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2506,7 +2642,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2523,99 +2659,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A2509-8A8A-45F6-9B11-CB3310BAAB40}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2625,11 +2669,104 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A2509-8A8A-45F6-9B11-CB3310BAAB40}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3701F9-10A6-4A7C-B5B3-4CD68C1D595E}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2678,10 +2815,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2692,10 +2829,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2706,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -2720,7 +2857,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -2734,7 +2871,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -2746,7 +2883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2784,10 +2921,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2798,7 +2935,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -2811,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2832,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -2849,7 +2986,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -2860,10 +2997,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2877,7 +3014,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -2891,7 +3028,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -2904,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2942,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -2954,7 +3091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2992,13 +3129,26 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3313,7 +3463,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3351,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E9BD8-9BB0-4463-9E6D-0B9ED14A5194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7798B622-9322-4347-8002-E590C6FE4A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="21165" windowHeight="14490" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10170" windowHeight="15585" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,22 @@
     <sheet name="隱藏門" sheetId="31" r:id="rId19"/>
     <sheet name="報紙(地)" sheetId="20" r:id="rId20"/>
     <sheet name="報紙(桌)" sheetId="21" r:id="rId21"/>
-    <sheet name="全家福" sheetId="22" r:id="rId22"/>
-    <sheet name="客廳劇情" sheetId="23" r:id="rId23"/>
-    <sheet name="用餐劇情" sheetId="29" r:id="rId24"/>
-    <sheet name="餐桌" sheetId="30" r:id="rId25"/>
-    <sheet name="鐘" sheetId="27" r:id="rId26"/>
-    <sheet name="爸爸房" sheetId="24" r:id="rId27"/>
-    <sheet name="媽媽房" sheetId="25" r:id="rId28"/>
-    <sheet name="工作表2" sheetId="32" r:id="rId29"/>
+    <sheet name="報紙(客廳)" sheetId="33" r:id="rId22"/>
+    <sheet name="全家福" sheetId="22" r:id="rId23"/>
+    <sheet name="客廳劇情" sheetId="23" r:id="rId24"/>
+    <sheet name="用餐劇情" sheetId="29" r:id="rId25"/>
+    <sheet name="餐桌" sheetId="30" r:id="rId26"/>
+    <sheet name="鐘" sheetId="27" r:id="rId27"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId29"/>
+    <sheet name="工作表2" sheetId="32" r:id="rId30"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="110">
   <si>
     <t>對話內容</t>
   </si>
@@ -623,6 +624,19 @@
   </si>
   <si>
     <t>Locked Door.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>社會焦點——重壓下的悲劇：優秀少女在家庭高壓下精神崩潰</t>
+  </si>
+  <si>
+    <t>某市一名成績優異少女，近日在母親長期嚴格逼迫下做出極端行為，目前被即時發現，正處於重度昏迷，情況危急。母親事後仍堅稱「一切都是為她好」。</t>
+  </si>
+  <si>
+    <t>事件引發社會關注，專家指出，當成績與控制成為唯一價值時，孩子最容易承受不可見的傷害….</t>
+  </si>
+  <si>
+    <t>真是讓人窒息....</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2338,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C01CA3-CB72-4288-9900-067F02FD8120}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2455,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2486,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2497,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2508,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2522,13 +2536,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2539,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2572,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2582,14 +2593,39 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2599,6 +2635,67 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE22E9-414D-4640-914C-C9417E6AB68E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2668,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A2509-8A8A-45F6-9B11-CB3310BAAB40}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2761,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3701F9-10A6-4A7C-B5B3-4CD68C1D595E}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -2883,7 +2980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2948,7 +3045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3041,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3091,7 +3188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3136,19 +3233,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3224,6 +3308,19 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7798B622-9322-4347-8002-E590C6FE4A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C236176B-1E60-43AA-B517-A671CC379D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10170" windowHeight="15585" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="0" windowWidth="10176" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="111">
   <si>
     <t>對話內容</t>
   </si>
@@ -637,6 +637,10 @@
   </si>
   <si>
     <t>真是讓人窒息....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>對話大圖</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1773,20 +1777,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1802,8 +1806,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1819,8 +1826,11 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1836,8 +1846,11 @@
       <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1852,6 +1865,9 @@
       </c>
       <c r="E4" t="s">
         <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1869,9 +1885,9 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1922,9 +1938,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1975,7 +1991,7 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2019,9 +2035,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2072,7 +2088,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
@@ -2153,9 +2169,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2206,7 +2222,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2250,9 +2266,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2303,9 +2319,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2356,10 +2372,10 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2418,10 +2434,10 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2473,9 +2489,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2550,18 +2566,18 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2577,8 +2593,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2589,7 +2608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2600,7 +2619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2611,7 +2630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2631,6 +2650,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2638,13 +2658,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE22E9-414D-4640-914C-C9417E6AB68E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2703,9 +2723,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2773,9 +2793,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2866,11 +2886,11 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2988,9 +3008,9 @@
       <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3053,9 +3073,9 @@
       <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3146,9 +3166,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3196,9 +3216,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3243,13 +3263,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3317,7 +3337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3332,9 +3352,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3403,9 +3423,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3492,9 +3512,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3515,7 +3535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5">
+    <row r="2" spans="1:5" ht="19.8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3563,11 +3583,11 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3618,9 +3638,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3690,7 +3710,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
   </cols>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C236176B-1E60-43AA-B517-A671CC379D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC4C88-234C-4B3A-8895-D47A68E9E44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="0" windowWidth="10176" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="21165" windowHeight="14490" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="畫對話" sheetId="6" r:id="rId8"/>
     <sheet name="未開門對話" sheetId="10" r:id="rId9"/>
     <sheet name="開門對話" sheetId="11" r:id="rId10"/>
-    <sheet name="方畫對話" sheetId="12" r:id="rId11"/>
-    <sheet name="方畫對話2.0" sheetId="17" r:id="rId12"/>
-    <sheet name="長畫對話" sheetId="13" r:id="rId13"/>
-    <sheet name="長畫對話2.0" sheetId="18" r:id="rId14"/>
-    <sheet name="長畫(直)對話" sheetId="14" r:id="rId15"/>
-    <sheet name="長畫(直)對話2.0" sheetId="19" r:id="rId16"/>
+    <sheet name="方畫對話2.0" sheetId="17" r:id="rId11"/>
+    <sheet name="長畫對話2.0" sheetId="18" r:id="rId12"/>
+    <sheet name="長畫(直)對話2.0" sheetId="19" r:id="rId13"/>
+    <sheet name="方畫對話" sheetId="12" r:id="rId14"/>
+    <sheet name="長畫對話" sheetId="13" r:id="rId15"/>
+    <sheet name="長畫(直)對話" sheetId="14" r:id="rId16"/>
     <sheet name="妹妹門" sheetId="15" r:id="rId17"/>
     <sheet name="瑪格麗特門" sheetId="16" r:id="rId18"/>
     <sheet name="隱藏門" sheetId="31" r:id="rId19"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
   <si>
     <t>對話內容</t>
   </si>
@@ -641,6 +641,10 @@
   </si>
   <si>
     <t>對話大圖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-紙板.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1779,14 +1783,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1847,7 +1851,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1867,7 +1871,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1879,18 +1883,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1906,8 +1910,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1922,6 +1929,9 @@
       </c>
       <c r="E2" t="s">
         <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1931,19 +1941,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDF6ABD-DED7-4F32-A64C-CFFAC755F298}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F70044B-C109-48E7-A1BC-0E386A1C7D76}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <cols>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1959,22 +1966,22 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
+      <c r="C2" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1984,16 +1991,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F70044B-C109-48E7-A1BC-0E386A1C7D76}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025B337B-BFA2-48E8-BC1A-4B3994A5CBD4}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2009,15 +2019,61 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>54</v>
+      <c r="C2" t="s">
+        <v>55</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2028,19 +2084,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F50C7A-45CB-4617-B1D7-F4DF4D1E9358}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C1AFE-577D-4D0E-8A3F-ADBE32BEA910}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <cols>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2056,22 +2109,22 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2081,19 +2134,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025B337B-BFA2-48E8-BC1A-4B3994A5CBD4}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDF6ABD-DED7-4F32-A64C-CFFAC755F298}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2109,50 +2162,28 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2162,19 +2193,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B9D0B-A0BE-4AD2-8DC7-C45457C2E78C}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F50C7A-45CB-4617-B1D7-F4DF4D1E9358}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2190,8 +2221,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2206,6 +2240,9 @@
       </c>
       <c r="E2" t="s">
         <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2215,16 +2252,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C1AFE-577D-4D0E-8A3F-ADBE32BEA910}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B9D0B-A0BE-4AD2-8DC7-C45457C2E78C}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2240,15 +2280,27 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2260,18 +2312,18 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C19FA-B0C2-4FDD-83A9-D2CCA2EB3129}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2287,8 +2339,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2303,6 +2358,9 @@
       </c>
       <c r="E2" t="s">
         <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2313,18 +2371,18 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFD704-59A4-42D2-BF1C-61A209CEAA9A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2340,8 +2398,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2356,6 +2417,9 @@
       </c>
       <c r="E2" t="s">
         <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2366,19 +2430,19 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C01CA3-CB72-4288-9900-067F02FD8120}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2408,8 +2475,11 @@
       <c r="E2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -2421,6 +2491,9 @@
       </c>
       <c r="E3" t="s">
         <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +2510,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2483,18 +2556,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2510,8 +2583,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2521,8 +2597,11 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2532,8 +2611,11 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2543,8 +2625,11 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2556,6 +2641,9 @@
       </c>
       <c r="D5" t="s">
         <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2568,13 +2656,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="73.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2607,6 +2695,9 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
@@ -2616,6 +2707,9 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2629,6 +2723,9 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
@@ -2645,6 +2742,9 @@
       </c>
       <c r="E5" t="s">
         <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2656,18 +2756,18 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE22E9-414D-4640-914C-C9417E6AB68E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="73.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2683,8 +2783,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2694,8 +2797,11 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2707,6 +2813,9 @@
       </c>
       <c r="D3" t="s">
         <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2717,18 +2826,18 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2744,8 +2853,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2761,8 +2873,11 @@
       <c r="E2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2777,6 +2892,9 @@
       </c>
       <c r="E3" t="s">
         <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2787,19 +2905,19 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A2509-8A8A-45F6-9B11-CB3310BAAB40}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2815,8 +2933,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2829,8 +2950,11 @@
       <c r="D2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2843,8 +2967,11 @@
       <c r="D3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2857,8 +2984,11 @@
       <c r="D4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2870,6 +3000,9 @@
       </c>
       <c r="D5" t="s">
         <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2880,20 +3013,20 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3701F9-10A6-4A7C-B5B3-4CD68C1D595E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2909,8 +3042,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2923,8 +3059,11 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2937,8 +3076,11 @@
       <c r="D3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2951,8 +3093,11 @@
       <c r="D4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2965,8 +3110,11 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2979,8 +3127,11 @@
       <c r="D6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2992,6 +3143,9 @@
       </c>
       <c r="D7" t="s">
         <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3002,18 +3156,18 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="B3:C3"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3029,8 +3183,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3043,8 +3200,11 @@
       <c r="D2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3056,6 +3216,9 @@
       </c>
       <c r="D3" t="s">
         <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3067,18 +3230,18 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3094,8 +3257,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3108,8 +3274,11 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3122,8 +3291,11 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3136,8 +3308,11 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3149,6 +3324,9 @@
       </c>
       <c r="D5" t="s">
         <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3160,18 +3338,18 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3187,8 +3365,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3200,6 +3381,9 @@
       </c>
       <c r="D2" t="s">
         <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3210,18 +3394,18 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3237,8 +3421,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3250,6 +3437,9 @@
       </c>
       <c r="D2" t="s">
         <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3260,20 +3450,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3289,8 +3479,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3306,8 +3499,11 @@
       <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3322,6 +3518,9 @@
       </c>
       <c r="E3" t="s">
         <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3346,19 +3545,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CCA60D-C2BB-4E70-A499-3E8D7DDAD9AE}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3374,8 +3573,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3391,8 +3593,11 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3407,6 +3612,9 @@
       </c>
       <c r="E3" t="s">
         <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3417,19 +3625,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431C17E7-5C7D-4476-9C45-C86A2516A2EF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3445,8 +3653,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3462,8 +3673,11 @@
       <c r="E2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3479,8 +3693,11 @@
       <c r="E3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3495,6 +3712,9 @@
       </c>
       <c r="E4" t="s">
         <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3506,19 +3726,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B71F8-5C66-4198-8486-4D7386CC4E20}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3534,8 +3754,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.8">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3551,8 +3774,11 @@
       <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3567,6 +3793,9 @@
       </c>
       <c r="E3" t="s">
         <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3577,20 +3806,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E87DB-3541-4770-9C53-9D345577998A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3606,8 +3835,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3622,6 +3854,9 @@
       </c>
       <c r="E2" t="s">
         <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3632,19 +3867,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF10AC-1295-449D-92FF-3CCBA166E1B7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3660,8 +3895,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3677,8 +3915,11 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3693,6 +3934,9 @@
       </c>
       <c r="E3" t="s">
         <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3704,18 +3948,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F5637-9F08-4B1E-A0A2-E92A6EDA09DA}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3731,21 +3975,36 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC4C88-234C-4B3A-8895-D47A68E9E44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8AF8E4-1480-44EB-8C48-AA15AEB45490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="21165" windowHeight="14490" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="116">
   <si>
     <t>對話內容</t>
   </si>
@@ -420,10 +420,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>是我們全家人的合照</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>總覺得有些陌生</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -645,6 +641,25 @@
   </si>
   <si>
     <t>插圖-紙板.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>筆記？這麼厚一疊，看起來真拚命⋯⋯</t>
+  </si>
+  <si>
+    <t>上面有張紙？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚訝.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是我們全家人的相片</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1811,7 +1826,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1911,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1967,7 +1982,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1994,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025B337B-BFA2-48E8-BC1A-4B3994A5CBD4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
@@ -2020,7 +2035,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2051,7 +2066,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2071,7 +2086,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -2110,7 +2125,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2163,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2180,7 +2195,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2222,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2239,7 +2254,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2281,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2298,7 +2313,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2340,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2357,7 +2372,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2399,7 +2414,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2416,7 +2431,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2459,7 +2474,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2467,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2484,13 +2499,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2556,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2584,18 +2599,24 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2605,11 +2626,14 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2620,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2633,16 +2657,44 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2682,7 +2734,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2690,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2704,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2718,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2741,7 +2793,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -2784,7 +2836,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2828,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2854,7 +2906,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2865,13 +2917,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2885,13 +2937,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2934,7 +2986,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2945,10 +2997,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2959,13 +3011,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2976,13 +3028,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -2996,7 +3048,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -3043,7 +3095,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3071,13 +3123,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3088,10 +3140,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3105,7 +3157,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -3122,7 +3174,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3139,7 +3191,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -3184,7 +3236,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3195,10 +3247,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3212,7 +3264,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -3249,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -3258,7 +3310,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3269,7 +3321,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -3283,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -3303,7 +3355,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -3320,7 +3372,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -3366,7 +3418,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3377,7 +3429,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -3422,7 +3474,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3433,7 +3485,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -3480,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3574,7 +3626,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3654,7 +3706,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3755,7 +3807,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5">
@@ -3836,7 +3888,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3896,7 +3948,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3976,7 +4028,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8AF8E4-1480-44EB-8C48-AA15AEB45490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C9C2B-81A5-44A2-A639-772EC0E6A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="31" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,20 @@
     <sheet name="鐘" sheetId="27" r:id="rId27"/>
     <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
     <sheet name="媽媽房" sheetId="25" r:id="rId29"/>
-    <sheet name="工作表2" sheetId="32" r:id="rId30"/>
+    <sheet name="妹妹房開始" sheetId="39" r:id="rId30"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId31"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId32"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId33"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId34"/>
+    <sheet name="修補包" sheetId="32" r:id="rId35"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="141">
   <si>
     <t>對話內容</t>
   </si>
@@ -660,6 +666,112 @@
   </si>
   <si>
     <t>是我們全家人的相片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是璐璐的繪本，好黏...!</t>
+  </si>
+  <si>
+    <t>....這些是璐璐畫的嗎？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（繪本充滿很不舒服的塗鴉）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起來讓人害怕⋯⋯</t>
+  </si>
+  <si>
+    <t>這種感覺，我好像有點熟悉。</t>
+  </si>
+  <si>
+    <t>別看了，快翻頁吧</t>
+  </si>
+  <si>
+    <t>....有了，是糖果的塗鴉。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去問問是不是這種糖吧。</t>
+  </si>
+  <si>
+    <t>難受.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘆氣.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐</t>
+  </si>
+  <si>
+    <t>嗚嗯....糖果....糖果....，姐姐你能給我個糖果嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，但是妳要的是哪種糖果呀？</t>
+  </si>
+  <si>
+    <t>是個很漂亮的糖果!</t>
+  </si>
+  <si>
+    <t>⋯⋯</t>
+  </si>
+  <si>
+    <t>是我最喜歡的糖果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我幫你找看看吧。</t>
+  </si>
+  <si>
+    <t>(不知道長甚麼樣，房間好多糖果相關的繪本....看看裡面有沒有她要的糖吧)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>疑惑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-一般.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-難過.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起來很舊，但很乾淨，沒有任何內容物。</t>
+  </si>
+  <si>
+    <t>積了灰塵的熊娃娃，沒有特別之處。</t>
+  </si>
+  <si>
+    <t>這看起來不是璐璐要找的朋友，再找找吧。</t>
+  </si>
+  <si>
+    <t>……</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1900,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
@@ -2880,7 +2992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3068,7 +3180,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3449,7 +3561,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3583,13 +3695,667 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="40.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="42.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C9C2B-81A5-44A2-A639-772EC0E6A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFAAC24-D7E2-4134-8360-AE65CCD6624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="31" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="21165" windowHeight="14490" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -43,19 +43,20 @@
     <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
     <sheet name="媽媽房" sheetId="25" r:id="rId29"/>
     <sheet name="妹妹房開始" sheetId="39" r:id="rId30"/>
-    <sheet name="乾淨繪本" sheetId="35" r:id="rId31"/>
-    <sheet name="沾糖果繪本" sheetId="34" r:id="rId32"/>
-    <sheet name="熊娃娃" sheetId="37" r:id="rId33"/>
-    <sheet name="破損娃娃" sheetId="38" r:id="rId34"/>
-    <sheet name="修補包" sheetId="32" r:id="rId35"/>
-    <sheet name="金平糖" sheetId="36" r:id="rId36"/>
+    <sheet name="妹妹房門內" sheetId="40" r:id="rId31"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId32"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId33"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId34"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId35"/>
+    <sheet name="小熊軟糖" sheetId="32" r:id="rId36"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId37"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="148">
   <si>
     <t>對話內容</t>
   </si>
@@ -772,6 +773,28 @@
   </si>
   <si>
     <t>……</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐房間最多的就是金平糖了</t>
+  </si>
+  <si>
+    <t>她應該很喜歡吧....?</t>
+  </si>
+  <si>
+    <t>爬滿螞蟻的繽紛小熊軟糖。</t>
+  </si>
+  <si>
+    <t>長滿了螞蟻，妹妹好像不怎麼吃。</t>
+  </si>
+  <si>
+    <t>這隻娃娃看起來好淒慘。</t>
+  </si>
+  <si>
+    <t>好可憐的樣子⋯⋯</t>
+  </si>
+  <si>
+    <t>現在還不需要離開。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3854,11 +3877,64 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3906,7 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -4095,7 +4171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4165,12 +4241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4202,8 +4278,11 @@
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4215,6 +4294,12 @@
       </c>
       <c r="C3" t="s">
         <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4224,54 +4309,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
       <c r="F4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4281,11 +4326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4314,45 +4359,101 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFAAC24-D7E2-4134-8360-AE65CCD6624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4917A6A1-87B8-45C4-A9F9-55E879735964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="21165" windowHeight="14490" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="990" windowWidth="21165" windowHeight="14490" firstSheet="22" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -40,23 +40,24 @@
     <sheet name="用餐劇情" sheetId="29" r:id="rId25"/>
     <sheet name="餐桌" sheetId="30" r:id="rId26"/>
     <sheet name="鐘" sheetId="27" r:id="rId27"/>
-    <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
-    <sheet name="媽媽房" sheetId="25" r:id="rId29"/>
-    <sheet name="妹妹房開始" sheetId="39" r:id="rId30"/>
-    <sheet name="妹妹房門內" sheetId="40" r:id="rId31"/>
-    <sheet name="乾淨繪本" sheetId="35" r:id="rId32"/>
-    <sheet name="沾糖果繪本" sheetId="34" r:id="rId33"/>
-    <sheet name="熊娃娃" sheetId="37" r:id="rId34"/>
-    <sheet name="破損娃娃" sheetId="38" r:id="rId35"/>
-    <sheet name="小熊軟糖" sheetId="32" r:id="rId36"/>
-    <sheet name="金平糖" sheetId="36" r:id="rId37"/>
+    <sheet name="酒吧" sheetId="41" r:id="rId28"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId29"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId30"/>
+    <sheet name="妹妹房開始" sheetId="39" r:id="rId31"/>
+    <sheet name="妹妹房門內" sheetId="40" r:id="rId32"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId33"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId34"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId35"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId36"/>
+    <sheet name="小熊軟糖" sheetId="32" r:id="rId37"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId38"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="165">
   <si>
     <t>對話內容</t>
   </si>
@@ -536,35 +537,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>大家都回房間後，餐盤裡的紙板也跟著消失了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⋯⋯</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>好詭異</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -795,6 +768,99 @@
   </si>
   <si>
     <t>現在還不需要離開。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>大家都回房間後，餐盤裡的紙板也跟著消失了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>⋯⋯</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-10.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-13.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-14.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-27.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-28.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-11.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像是爸爸的小型酒吧，酒櫃好華麗。</t>
+  </si>
+  <si>
+    <t>但爸爸不是很愛整齊的嗎，為什麼會有碎掉的瓶子？</t>
+  </si>
+  <si>
+    <t>3-6-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-7.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-11.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-12-1.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1083,13 +1149,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="MS Mincho"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1100,6 +1159,12 @@
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1527,7 +1592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1573,7 +1638,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1961,7 +2029,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2061,7 +2129,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2117,7 +2185,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2170,7 +2238,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2201,7 +2269,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2221,7 +2289,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -2260,7 +2328,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2313,7 +2381,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2330,7 +2398,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2372,7 +2440,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2389,7 +2457,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2431,7 +2499,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2448,7 +2516,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2490,7 +2558,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2507,7 +2575,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2549,7 +2617,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2566,7 +2634,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2609,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2617,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2634,13 +2702,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2709,7 +2777,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2734,7 +2802,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2745,13 +2813,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2765,10 +2833,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2779,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2793,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -2807,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -2824,10 +2895,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -2844,7 +2918,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2869,7 +2943,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2891,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2905,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2928,7 +3002,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -2971,7 +3045,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3041,7 +3115,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3052,13 +3126,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3078,7 +3152,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3095,7 +3169,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3121,7 +3195,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3135,7 +3209,7 @@
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3152,7 +3226,7 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3169,7 +3243,7 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3187,6 +3261,9 @@
       </c>
       <c r="D5" t="s">
         <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3203,13 +3280,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3230,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3263,8 +3341,11 @@
       <c r="D3" t="s">
         <v>75</v>
       </c>
+      <c r="E3" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3278,7 +3359,7 @@
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3314,6 +3395,9 @@
       <c r="D6" t="s">
         <v>51</v>
       </c>
+      <c r="E6" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
@@ -3330,6 +3414,9 @@
       </c>
       <c r="D7" t="s">
         <v>51</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -3346,7 +3433,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3371,10 +3458,10 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="93">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3382,11 +3469,14 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3399,10 +3489,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3419,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3445,7 +3538,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3460,6 +3553,9 @@
       </c>
       <c r="D2" t="s">
         <v>61</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3495,6 +3591,9 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -3511,6 +3610,9 @@
       </c>
       <c r="D5" t="s">
         <v>51</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3524,11 +3626,91 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB2A1A9-1A04-4284-AD0E-B06A1C18DC2F}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3553,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3569,61 +3751,8 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
+      <c r="E2" t="s">
+        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3667,7 +3796,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3718,6 +3847,65 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3748,7 +3936,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3756,13 +3944,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3776,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -3790,13 +3978,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3810,10 +3998,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3824,13 +4012,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -3844,7 +4032,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -3861,10 +4049,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -3876,11 +4064,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3906,7 +4094,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3914,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3929,7 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3959,7 +4147,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3967,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3982,7 +4170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -4012,7 +4200,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4023,7 +4211,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -4040,7 +4228,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
@@ -4054,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -4071,7 +4259,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>63</v>
@@ -4088,10 +4276,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4105,10 +4293,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4139,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -4156,7 +4344,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -4171,7 +4359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4201,7 +4389,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4209,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -4226,7 +4414,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -4241,7 +4429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -4268,7 +4456,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4279,10 +4467,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4293,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -4310,7 +4498,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -4325,7 +4513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4352,7 +4540,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4360,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -4377,7 +4565,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -4392,7 +4580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4419,7 +4607,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4430,7 +4618,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -4447,7 +4635,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -4493,7 +4681,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4573,7 +4761,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4674,7 +4862,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5">
@@ -4755,7 +4943,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4815,7 +5003,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4895,7 +5083,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4917A6A1-87B8-45C4-A9F9-55E879735964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022393B-BEB0-410D-9CE0-701FA5F36E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="990" windowWidth="21165" windowHeight="14490" firstSheet="22" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="21165" windowHeight="14490" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -21,43 +21,44 @@
     <sheet name="照片對話" sheetId="8" r:id="rId6"/>
     <sheet name="蠟燭對話" sheetId="9" r:id="rId7"/>
     <sheet name="畫對話" sheetId="6" r:id="rId8"/>
-    <sheet name="未開門對話" sheetId="10" r:id="rId9"/>
-    <sheet name="開門對話" sheetId="11" r:id="rId10"/>
-    <sheet name="方畫對話2.0" sheetId="17" r:id="rId11"/>
-    <sheet name="長畫對話2.0" sheetId="18" r:id="rId12"/>
-    <sheet name="長畫(直)對話2.0" sheetId="19" r:id="rId13"/>
-    <sheet name="方畫對話" sheetId="12" r:id="rId14"/>
-    <sheet name="長畫對話" sheetId="13" r:id="rId15"/>
-    <sheet name="長畫(直)對話" sheetId="14" r:id="rId16"/>
-    <sheet name="妹妹門" sheetId="15" r:id="rId17"/>
-    <sheet name="瑪格麗特門" sheetId="16" r:id="rId18"/>
-    <sheet name="隱藏門" sheetId="31" r:id="rId19"/>
-    <sheet name="報紙(地)" sheetId="20" r:id="rId20"/>
-    <sheet name="報紙(桌)" sheetId="21" r:id="rId21"/>
-    <sheet name="報紙(客廳)" sheetId="33" r:id="rId22"/>
-    <sheet name="全家福" sheetId="22" r:id="rId23"/>
-    <sheet name="客廳劇情" sheetId="23" r:id="rId24"/>
-    <sheet name="用餐劇情" sheetId="29" r:id="rId25"/>
-    <sheet name="餐桌" sheetId="30" r:id="rId26"/>
-    <sheet name="鐘" sheetId="27" r:id="rId27"/>
-    <sheet name="酒吧" sheetId="41" r:id="rId28"/>
-    <sheet name="爸爸房" sheetId="24" r:id="rId29"/>
-    <sheet name="媽媽房" sheetId="25" r:id="rId30"/>
-    <sheet name="妹妹房開始" sheetId="39" r:id="rId31"/>
-    <sheet name="妹妹房門內" sheetId="40" r:id="rId32"/>
-    <sheet name="乾淨繪本" sheetId="35" r:id="rId33"/>
-    <sheet name="沾糖果繪本" sheetId="34" r:id="rId34"/>
-    <sheet name="熊娃娃" sheetId="37" r:id="rId35"/>
-    <sheet name="破損娃娃" sheetId="38" r:id="rId36"/>
-    <sheet name="小熊軟糖" sheetId="32" r:id="rId37"/>
-    <sheet name="金平糖" sheetId="36" r:id="rId38"/>
+    <sheet name="畫對話2" sheetId="42" r:id="rId9"/>
+    <sheet name="未開門對話" sheetId="10" r:id="rId10"/>
+    <sheet name="開門對話" sheetId="11" r:id="rId11"/>
+    <sheet name="方畫對話2.0" sheetId="17" r:id="rId12"/>
+    <sheet name="長畫對話2.0" sheetId="18" r:id="rId13"/>
+    <sheet name="長畫(直)對話2.0" sheetId="19" r:id="rId14"/>
+    <sheet name="方畫對話" sheetId="12" r:id="rId15"/>
+    <sheet name="長畫對話" sheetId="13" r:id="rId16"/>
+    <sheet name="長畫(直)對話" sheetId="14" r:id="rId17"/>
+    <sheet name="妹妹門" sheetId="15" r:id="rId18"/>
+    <sheet name="瑪格麗特門" sheetId="16" r:id="rId19"/>
+    <sheet name="隱藏門" sheetId="31" r:id="rId20"/>
+    <sheet name="報紙(地)" sheetId="20" r:id="rId21"/>
+    <sheet name="報紙(桌)" sheetId="21" r:id="rId22"/>
+    <sheet name="報紙(客廳)" sheetId="33" r:id="rId23"/>
+    <sheet name="全家福" sheetId="22" r:id="rId24"/>
+    <sheet name="客廳劇情" sheetId="23" r:id="rId25"/>
+    <sheet name="用餐劇情" sheetId="29" r:id="rId26"/>
+    <sheet name="餐桌" sheetId="30" r:id="rId27"/>
+    <sheet name="鐘" sheetId="27" r:id="rId28"/>
+    <sheet name="酒吧" sheetId="41" r:id="rId29"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId30"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId31"/>
+    <sheet name="妹妹房開始" sheetId="39" r:id="rId32"/>
+    <sheet name="妹妹房門內" sheetId="40" r:id="rId33"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId34"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId35"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId36"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId37"/>
+    <sheet name="小熊軟糖" sheetId="32" r:id="rId38"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId39"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="165">
   <si>
     <t>對話內容</t>
   </si>
@@ -2002,7 +2003,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2100,6 +2101,74 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F5637-9F08-4B1E-A0A2-E92A6EDA09DA}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC05EE8-3D8F-437A-86F2-E5445FF0C18E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2158,7 +2227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F70044B-C109-48E7-A1BC-0E386A1C7D76}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2208,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025B337B-BFA2-48E8-BC1A-4B3994A5CBD4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2301,7 +2370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C1AFE-577D-4D0E-8A3F-ADBE32BEA910}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2351,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDF6ABD-DED7-4F32-A64C-CFFAC755F298}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2410,7 +2479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F50C7A-45CB-4617-B1D7-F4DF4D1E9358}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2469,7 +2538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B9D0B-A0BE-4AD2-8DC7-C45457C2E78C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2528,7 +2597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C19FA-B0C2-4FDD-83A9-D2CCA2EB3129}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2587,7 +2656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFD704-59A4-42D2-BF1C-61A209CEAA9A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2637,80 +2706,6 @@
         <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C01CA3-CB72-4288-9900-067F02FD8120}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2773,6 +2768,80 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C01CA3-CB72-4288-9900-067F02FD8120}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2913,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3015,7 +3084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE22E9-414D-4640-914C-C9417E6AB68E}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3085,7 +3154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3164,7 +3233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A2509-8A8A-45F6-9B11-CB3310BAAB40}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3275,7 +3344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3701F9-10A6-4A7C-B5B3-4CD68C1D595E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3428,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3508,11 +3577,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3625,7 +3694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB2A1A9-1A04-4284-AD0E-B06A1C18DC2F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3705,7 +3774,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3764,89 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB55577-B132-4F63-8B2D-9DC22028679C}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3905,7 +3974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4064,7 +4133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4117,7 +4186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4170,7 +4239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -4359,7 +4428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4429,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -4513,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4580,7 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4977,7 +5046,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5023,7 +5092,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5054,17 +5123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F5637-9F08-4B1E-A0A2-E92A6EDA09DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56E4F43-E9ED-421A-A3BF-6A67972E64BD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -5090,11 +5156,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5104,11 +5176,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5117,6 +5195,5 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022393B-BEB0-410D-9CE0-701FA5F36E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4382E6E-8175-4566-A9E3-09CA0D1E71EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="21165" windowHeight="14490" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="19095" windowHeight="14490" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -27,38 +27,41 @@
     <sheet name="方畫對話2.0" sheetId="17" r:id="rId12"/>
     <sheet name="長畫對話2.0" sheetId="18" r:id="rId13"/>
     <sheet name="長畫(直)對話2.0" sheetId="19" r:id="rId14"/>
-    <sheet name="方畫對話" sheetId="12" r:id="rId15"/>
-    <sheet name="長畫對話" sheetId="13" r:id="rId16"/>
-    <sheet name="長畫(直)對話" sheetId="14" r:id="rId17"/>
-    <sheet name="妹妹門" sheetId="15" r:id="rId18"/>
-    <sheet name="瑪格麗特門" sheetId="16" r:id="rId19"/>
-    <sheet name="隱藏門" sheetId="31" r:id="rId20"/>
-    <sheet name="報紙(地)" sheetId="20" r:id="rId21"/>
-    <sheet name="報紙(桌)" sheetId="21" r:id="rId22"/>
-    <sheet name="報紙(客廳)" sheetId="33" r:id="rId23"/>
-    <sheet name="全家福" sheetId="22" r:id="rId24"/>
-    <sheet name="客廳劇情" sheetId="23" r:id="rId25"/>
-    <sheet name="用餐劇情" sheetId="29" r:id="rId26"/>
-    <sheet name="餐桌" sheetId="30" r:id="rId27"/>
-    <sheet name="鐘" sheetId="27" r:id="rId28"/>
-    <sheet name="酒吧" sheetId="41" r:id="rId29"/>
-    <sheet name="爸爸房" sheetId="24" r:id="rId30"/>
-    <sheet name="媽媽房" sheetId="25" r:id="rId31"/>
-    <sheet name="妹妹房開始" sheetId="39" r:id="rId32"/>
-    <sheet name="妹妹房門內" sheetId="40" r:id="rId33"/>
-    <sheet name="乾淨繪本" sheetId="35" r:id="rId34"/>
-    <sheet name="沾糖果繪本" sheetId="34" r:id="rId35"/>
-    <sheet name="熊娃娃" sheetId="37" r:id="rId36"/>
-    <sheet name="破損娃娃" sheetId="38" r:id="rId37"/>
-    <sheet name="小熊軟糖" sheetId="32" r:id="rId38"/>
-    <sheet name="金平糖" sheetId="36" r:id="rId39"/>
+    <sheet name="妹妹門" sheetId="15" r:id="rId15"/>
+    <sheet name="瑪格麗特門" sheetId="16" r:id="rId16"/>
+    <sheet name="隱藏門" sheetId="31" r:id="rId17"/>
+    <sheet name="報紙(地)" sheetId="20" r:id="rId18"/>
+    <sheet name="報紙(桌)" sheetId="21" r:id="rId19"/>
+    <sheet name="報紙(客廳)" sheetId="33" r:id="rId20"/>
+    <sheet name="全家福" sheetId="22" r:id="rId21"/>
+    <sheet name="客廳劇情" sheetId="23" r:id="rId22"/>
+    <sheet name="用餐劇情" sheetId="29" r:id="rId23"/>
+    <sheet name="餐桌" sheetId="30" r:id="rId24"/>
+    <sheet name="鐘" sheetId="27" r:id="rId25"/>
+    <sheet name="酒吧" sheetId="41" r:id="rId26"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId27"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId28"/>
+    <sheet name="進入妹妹房" sheetId="43" r:id="rId29"/>
+    <sheet name="妹妹房開始" sheetId="39" r:id="rId30"/>
+    <sheet name="妹妹房門_內" sheetId="40" r:id="rId31"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId32"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId33"/>
+    <sheet name="繪本交談" sheetId="44" r:id="rId34"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId35"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId36"/>
+    <sheet name="娃娃交談" sheetId="45" r:id="rId37"/>
+    <sheet name="修補娃(前)交談" sheetId="46" r:id="rId38"/>
+    <sheet name="修補娃(中)交談" sheetId="48" r:id="rId39"/>
+    <sheet name="修補娃(後)交談" sheetId="47" r:id="rId40"/>
+    <sheet name="小熊軟糖" sheetId="32" r:id="rId41"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId42"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="256">
   <si>
     <t>對話內容</t>
   </si>
@@ -464,9 +467,6 @@
     <t>這是...紙板？</t>
   </si>
   <si>
-    <t>說什麼傻話呢，再不趁熱吃就涼了啊。</t>
-  </si>
-  <si>
     <t>...?</t>
   </si>
   <si>
@@ -561,10 +561,6 @@
     <t>2-5.mp3</t>
   </si>
   <si>
-    <t>2-5.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>2-7.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -759,17 +755,10 @@
     <t>爬滿螞蟻的繽紛小熊軟糖。</t>
   </si>
   <si>
-    <t>長滿了螞蟻，妹妹好像不怎麼吃。</t>
-  </si>
-  <si>
     <t>這隻娃娃看起來好淒慘。</t>
   </si>
   <si>
     <t>好可憐的樣子⋯⋯</t>
-  </si>
-  <si>
-    <t>現在還不需要離開。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>3-1.mp3</t>
@@ -864,6 +853,376 @@
     <t>3-12-1.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>翻頁.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道璐璐知不知道些甚麼。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>疑惑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Png</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐，你要找的是這種糖果嗎？</t>
+  </si>
+  <si>
+    <t>不是，這不是我喜歡的那個！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧，那姐姐再仔細找一下。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝謝姐姐！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>....還有</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>....璐璐的繪本裡面怎麼畫了那麼多奇怪的黑色東西?</t>
+  </si>
+  <si>
+    <t>那是怪物呦！是我最害怕的怪物⋯⋯</t>
+  </si>
+  <si>
+    <t>只要牠來找我，我都會覺得很不舒服，好噁心。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物，好可怕....!他說，不准和任何人講！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>....我沒有說....我畫在本子上，這樣不算和別人說吧？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（黑色的怪物，我的記憶裡似乎也有一團黑色模糊的影子，一想到就覺得噁心恐懼，是怎麼回事？）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-5.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-7.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-8.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-9.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-11.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-12.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-13.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-14.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>對了，那個可怕的怪物還把我的好朋友藏起來了！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找不到它....我好想它....</t>
+  </si>
+  <si>
+    <t>沒事，我幫妳找找看。</t>
+  </si>
+  <si>
+    <t>（還不知道璐璐要的是甚麼糖果....先找她的洋娃娃吧！）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>無奈2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>無奈3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>開心.png</t>
+  </si>
+  <si>
+    <t>無奈.png</t>
+  </si>
+  <si>
+    <t>無奈.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般.png</t>
+  </si>
+  <si>
+    <t>難受.png</t>
+  </si>
+  <si>
+    <t>閉眼微笑.png</t>
+  </si>
+  <si>
+    <t>5-58.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-19.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-20.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-21.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇！就是它！</t>
+  </si>
+  <si>
+    <t>它是我最好的朋友，會聽我講好多話跟心事、陪我度過可怕的黑夜，但是⋯⋯</t>
+  </si>
+  <si>
+    <t>但是？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是有一次怪物出現，我沒有把它藏起來，它就被抓走了！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>....它的嘴巴....原本就長這樣嗎？</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>不是！因為，我告訴了它好多好多的秘密，萬一它說出去了，我們就完蛋了！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以我只好讓它不能說話，這樣就沒事了吧....</t>
+  </si>
+  <si>
+    <t>它現在已經不能說話、也看不到了，不會再被抓走了，對嗎?</t>
+  </si>
+  <si>
+    <t>現在，我們不需要讓它不能說話、也不需要拿走它的眼睛，它就能永遠在你身邊囉。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>真的嗎！太好了！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（這種恐懼，感覺我能理解...為甚麼....）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（....先把娃娃修好吧，房間應該有修補的東西能用）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑惑.png</t>
+  </si>
+  <si>
+    <t>無奈２.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-開心.png</t>
+  </si>
+  <si>
+    <t>璐璐-張嘴.png</t>
+  </si>
+  <si>
+    <t>璐璐-激動.png</t>
+  </si>
+  <si>
+    <t>他說我的娃娃很討厭，會盯著他，說著就把它用壞了.....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-難過.png</t>
+  </si>
+  <si>
+    <t>璐璐-驚恐.png</t>
+  </si>
+  <si>
+    <t>我找到了一些能修補的東西，應該可以幫你修好你的朋友，還能幫它做件衣服喔！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯！</t>
+  </si>
+  <si>
+    <t>修好了，再來就剩讓它可以說話</t>
+  </si>
+  <si>
+    <t>5-27.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-28.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>⋯⋯是一張糖果包裝紙。</t>
+  </si>
+  <si>
+    <t>啊！這是我很喜歡的糖果！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是媽媽給我的，那時候，很快樂！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（但是璐璐的房間....沒看到這種糖果呀?倒是有好多好多金平糖....）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（她不是喜歡金平糖嗎?）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃修好了！</t>
+  </si>
+  <si>
+    <t>現在它看的到、也能說話囉。</t>
+  </si>
+  <si>
+    <t>哇，太好了！</t>
+  </si>
+  <si>
+    <t>（....對了，差點忘記妹妹要的糖果了！）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-22.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-23.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-24.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-33.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-33-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在還不需要出去。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>長滿了螞蟻，璐璐好像不怎麼吃。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-32-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>說什麼傻話呢，再不趁熱吃就涼了啊。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽用餐2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2樓走廊畫3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2樓走廊畫2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2樓走廊畫1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -872,7 +1231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1166,6 +1525,19 @@
       <color theme="1"/>
       <name val="Cambria Math"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1593,7 +1965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1643,6 +2015,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2030,7 +2408,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2130,7 +2508,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2198,7 +2576,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2231,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F70044B-C109-48E7-A1BC-0E386A1C7D76}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2254,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2268,7 +2646,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2282,12 +2660,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2307,7 +2686,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2321,7 +2700,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2338,7 +2717,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2358,7 +2737,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -2375,7 +2754,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2397,7 +2776,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2411,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2421,188 +2800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDF6ABD-DED7-4F32-A64C-CFFAC755F298}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F50C7A-45CB-4617-B1D7-F4DF4D1E9358}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B9D0B-A0BE-4AD2-8DC7-C45457C2E78C}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C19FA-B0C2-4FDD-83A9-D2CCA2EB3129}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2627,7 +2829,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2644,7 +2846,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2656,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFD704-59A4-42D2-BF1C-61A209CEAA9A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2686,7 +2888,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2703,7 +2905,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2712,6 +2914,326 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C01CA3-CB72-4288-9900-067F02FD8120}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2768,226 +3290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C01CA3-CB72-4288-9900-067F02FD8120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE22E9-414D-4640-914C-C9417E6AB68E}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA46F8-DDCE-4F54-8437-CBCB45C26CC4}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF5ABDA-1D86-451F-8409-4007A01CBEBD}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3012,7 +3319,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3020,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3033,108 +3340,6 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE22E9-414D-4640-914C-C9417E6AB68E}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="73.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3347,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3154,12 +3359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49697D9-3519-4D7D-81F9-4373A369F781}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3184,7 +3389,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3195,13 +3400,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3221,7 +3426,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3233,12 +3438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A2509-8A8A-45F6-9B11-CB3310BAAB40}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3264,7 +3469,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3278,7 +3483,10 @@
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>249</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3295,7 +3503,10 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>248</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3312,7 +3523,10 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>250</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3329,10 +3543,10 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3344,12 +3558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3701F9-10A6-4A7C-B5B3-4CD68C1D595E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3377,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3391,7 +3605,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3408,13 +3622,13 @@
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3424,11 +3638,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>73</v>
+      <c r="C4" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3442,7 +3659,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -3459,13 +3676,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -3479,13 +3696,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -3497,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3527,7 +3744,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="93">
@@ -3538,13 +3755,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3558,13 +3775,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3577,12 +3794,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3598,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -3607,7 +3824,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3618,13 +3835,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3635,10 +3852,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -3655,13 +3872,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3675,13 +3892,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3694,12 +3911,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB2A1A9-1A04-4284-AD0E-B06A1C18DC2F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3725,7 +3942,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3736,13 +3953,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3756,15 +3973,192 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3260AE-9069-402A-9A27-9A26380963E1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3806,7 +4200,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3857,129 +4251,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4005,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4013,13 +4289,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4033,10 +4309,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4047,13 +4326,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4067,10 +4346,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4081,13 +4360,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4101,10 +4380,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>244</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4118,10 +4400,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4133,7 +4415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4163,18 +4445,24 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="15" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4186,7 +4474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4216,7 +4504,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4224,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -4239,12 +4527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F10" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4269,7 +4557,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4280,10 +4568,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4297,10 +4588,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4311,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -4328,10 +4622,13 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4345,10 +4642,13 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4362,10 +4662,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4382,7 +4685,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4396,10 +4699,13 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>182</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -4413,10 +4719,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -4428,12 +4737,309 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A0450-BEA6-49F0-A571-F48F553C38A2}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="98.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4458,7 +5064,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4466,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -4483,12 +5089,105 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4499,14 +5198,18 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721FB441-221C-4499-B100-ED6048E39A21}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -4525,21 +5228,21 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4549,11 +5252,14 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4563,16 +5269,229 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>144</v>
+      <c r="C4" t="s">
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>217</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4583,14 +5502,18 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92CA503-D064-44C7-AF09-4BE275DDBEBC}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -4609,18 +5532,24 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>141</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4630,14 +5559,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4650,14 +5579,17 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FA71-BD22-4AA4-8490-F9C6D7366AA2}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -4676,40 +5608,23 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>139</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4750,7 +5665,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4788,6 +5703,378 @@
       </c>
       <c r="E3" t="s">
         <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190CCA5-BCDB-4EBB-B137-0C9BA45B8186}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="65.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4830,7 +6117,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4931,7 +6218,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5">
@@ -5012,7 +6299,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5072,7 +6359,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5092,7 +6379,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5126,7 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56E4F43-E9ED-421A-A3BF-6A67972E64BD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5149,7 +6436,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4382E6E-8175-4566-A9E3-09CA0D1E71EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BADACB7-5032-4DBE-80E3-9DD7F261A044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="19095" windowHeight="14490" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="19095" windowHeight="14490" firstSheet="28" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="256">
   <si>
     <t>對話內容</t>
   </si>
@@ -2609,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F70044B-C109-48E7-A1BC-0E386A1C7D76}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4531,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F2:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4686,6 +4686,9 @@
       </c>
       <c r="D8" t="s">
         <v>196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BADACB7-5032-4DBE-80E3-9DD7F261A044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7D07A-BB01-4D1B-B166-E62271016345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="19095" windowHeight="14490" firstSheet="28" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="19095" windowHeight="14490" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="260">
   <si>
     <t>對話內容</t>
   </si>
@@ -858,9 +858,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>不知道璐璐知不知道些甚麼。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1221,6 +1218,26 @@
   </si>
   <si>
     <t>2樓走廊畫1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道璐璐知不知道些甚麼。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-2.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2646,7 +2663,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2717,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2790,7 +2807,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3137,7 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
         <v>158</v>
@@ -3347,7 +3364,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3486,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3506,7 +3523,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3526,7 +3543,7 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3543,7 +3560,7 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>142</v>
@@ -3605,7 +3622,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3639,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3875,7 +3892,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>148</v>
@@ -4113,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3260AE-9069-402A-9A27-9A26380963E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4150,13 +4167,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
-        <v>163</v>
-      </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4255,7 +4272,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4297,6 +4314,9 @@
       <c r="D2" t="s">
         <v>132</v>
       </c>
+      <c r="E2" t="s">
+        <v>255</v>
+      </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -4315,7 +4335,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4334,6 +4354,9 @@
       <c r="D4" t="s">
         <v>96</v>
       </c>
+      <c r="E4" t="s">
+        <v>256</v>
+      </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -4368,6 +4391,9 @@
       <c r="D6" t="s">
         <v>131</v>
       </c>
+      <c r="E6" t="s">
+        <v>257</v>
+      </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
@@ -4386,7 +4412,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4456,13 +4482,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4531,7 +4557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4574,7 +4600,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4591,10 +4617,10 @@
         <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4628,7 +4654,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4648,7 +4674,7 @@
         <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4665,10 +4691,10 @@
         <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4685,7 +4711,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
         <v>161</v>
@@ -4708,7 +4734,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -4728,7 +4754,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -4782,13 +4808,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4802,7 +4828,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4816,13 +4842,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4836,7 +4862,7 @@
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4850,13 +4876,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4870,7 +4896,7 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4884,13 +4910,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4904,7 +4930,7 @@
         <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -4918,7 +4944,7 @@
         <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -4932,7 +4958,7 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -4946,7 +4972,7 @@
         <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -4960,10 +4986,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -4977,7 +5003,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -4991,7 +5017,7 @@
         <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -5005,10 +5031,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -5022,10 +5048,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -5098,7 +5124,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5154,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5188,7 +5214,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5242,10 +5268,10 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5259,10 +5285,10 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5276,13 +5302,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5296,10 +5322,10 @@
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -5313,10 +5339,10 @@
         <v>122</v>
       </c>
       <c r="C6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" t="s">
         <v>222</v>
-      </c>
-      <c r="D6" t="s">
-        <v>223</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -5330,10 +5356,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -5347,13 +5373,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5367,10 +5393,10 @@
         <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -5384,10 +5410,10 @@
         <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -5401,10 +5427,10 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -5418,10 +5444,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -5435,13 +5461,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -5455,10 +5481,10 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -5472,10 +5498,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -5489,7 +5515,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
         <v>121</v>
@@ -5546,13 +5572,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5566,10 +5592,10 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5622,10 +5648,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5758,7 +5784,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -5775,10 +5801,10 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5792,10 +5818,10 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5809,10 +5835,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -5826,7 +5852,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -5857,7 +5883,7 @@
         <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5871,10 +5897,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -5888,10 +5914,10 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -5905,10 +5931,10 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -5922,7 +5948,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
         <v>74</v>
@@ -5992,13 +6018,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6057,7 +6083,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -6077,7 +6103,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\unity\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7D07A-BB01-4D1B-B166-E62271016345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4C796-D106-4075-AD21-CB6CAB1BA7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="19095" windowHeight="14490" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,11 @@
     <sheet name="金平糖" sheetId="36" r:id="rId42"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1209,18 +1214,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2樓走廊畫3.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2樓走廊畫2.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2樓走廊畫1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>4-1-2.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1238,6 +1231,18 @@
   </si>
   <si>
     <t>5-1-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫1.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2099,9 +2104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2139,7 +2144,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2245,7 +2250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2387,7 +2392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2627,10 +2632,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2663,7 +2671,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2685,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2717,7 +2725,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2770,11 +2778,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C1AFE-577D-4D0E-8A3F-ADBE32BEA910}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2807,7 +2818,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3260AE-9069-402A-9A27-9A26380963E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4167,13 +4178,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4315,7 +4326,7 @@
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4355,7 +4366,7 @@
         <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4392,7 +4403,7 @@
         <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\unity\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4C796-D106-4075-AD21-CB6CAB1BA7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE91D53-B0E5-4766-BE64-A90763AD14CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="13785" windowHeight="14490" firstSheet="30" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -55,18 +55,15 @@
     <sheet name="修補娃(後)交談" sheetId="47" r:id="rId40"/>
     <sheet name="小熊軟糖" sheetId="32" r:id="rId41"/>
     <sheet name="金平糖" sheetId="36" r:id="rId42"/>
+    <sheet name="TRUE" sheetId="49" r:id="rId43"/>
+    <sheet name="BAD" sheetId="50" r:id="rId44"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="264">
   <si>
     <t>對話內容</t>
   </si>
@@ -1126,9 +1123,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>⋯⋯是一張糖果包裝紙。</t>
-  </si>
-  <si>
     <t>啊！這是我很喜歡的糖果！</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1154,10 +1148,6 @@
     <t>哇，太好了！</t>
   </si>
   <si>
-    <t>（....對了，差點忘記妹妹要的糖果了！）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>5-22.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1243,6 +1233,29 @@
   </si>
   <si>
     <t>插圖-走廊畫1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>……！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴裡好像有東西⋯⋯是一張糖果包裝紙。</t>
+  </si>
+  <si>
+    <t>5-60-1.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-61-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-62-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-17.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2104,9 +2117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2144,7 +2157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2250,7 +2263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2392,7 +2405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2671,7 +2684,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +2738,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2778,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C1AFE-577D-4D0E-8A3F-ADBE32BEA910}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2818,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3514,7 +3527,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3534,7 +3547,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3554,7 +3567,7 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3667,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4178,13 +4191,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4326,7 +4339,7 @@
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4366,7 +4379,7 @@
         <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4403,7 +4416,7 @@
         <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4423,7 +4436,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4456,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4493,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -4781,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A0450-BEA6-49F0-A571-F48F553C38A2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5046,6 +5059,9 @@
       </c>
       <c r="D16" s="18" t="s">
         <v>192</v>
+      </c>
+      <c r="E16" t="s">
+        <v>263</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -5319,7 +5335,7 @@
         <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5390,7 +5406,7 @@
         <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5478,7 +5494,7 @@
         <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -5623,7 +5639,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5661,7 +5677,7 @@
       <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>228</v>
       </c>
       <c r="F2" t="s">
@@ -5759,7 +5775,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5795,10 +5811,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>260</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5809,13 +5828,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5829,7 +5851,7 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
         <v>218</v>
@@ -5842,14 +5864,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -5863,10 +5882,13 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -5876,8 +5898,14 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -5888,13 +5916,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5908,10 +5936,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -5925,10 +5953,10 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -5938,34 +5966,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6029,13 +6033,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6052,7 +6056,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6094,7 +6098,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -6114,10 +6118,82 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C41FEB-3E0B-4FCB-B05D-90C882026061}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FF1EE5-64DB-45D0-B97B-0819EE9FF4D4}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\unity\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE91D53-B0E5-4766-BE64-A90763AD14CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E4E943-6948-4A0C-9C28-4530AECA7CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="13785" windowHeight="14490" firstSheet="30" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="30" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -59,11 +59,16 @@
     <sheet name="BAD" sheetId="50" r:id="rId44"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="268">
   <si>
     <t>對話內容</t>
   </si>
@@ -1256,6 +1261,22 @@
   </si>
   <si>
     <t>5-17.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-修好的娃娃.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-娃娃張嘴1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-娃娃張嘴2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-糖果紙.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2117,9 +2138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2157,7 +2178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2263,7 +2284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2405,7 +2426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4469,7 +4490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5774,13 +5795,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190CCA5-BCDB-4EBB-B137-0C9BA45B8186}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5820,7 +5843,7 @@
         <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5840,7 +5863,7 @@
         <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5857,7 +5880,7 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5871,7 +5894,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5891,7 +5914,7 @@
         <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5908,7 +5931,7 @@
         <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5925,7 +5948,7 @@
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\unity\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E4E943-6948-4A0C-9C28-4530AECA7CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B4F60-BA65-467F-B434-147B57AA728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="30" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="13785" windowHeight="14490" firstSheet="38" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -59,16 +59,11 @@
     <sheet name="BAD" sheetId="50" r:id="rId44"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="269">
   <si>
     <t>對話內容</t>
   </si>
@@ -1117,166 +1112,171 @@
     <t>嗯！</t>
   </si>
   <si>
+    <t>5-27.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-28.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊！這是我很喜歡的糖果！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是媽媽給我的，那時候，很快樂！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（但是璐璐的房間....沒看到這種糖果呀?倒是有好多好多金平糖....）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（她不是喜歡金平糖嗎?）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃修好了！</t>
+  </si>
+  <si>
+    <t>現在它看的到、也能說話囉。</t>
+  </si>
+  <si>
+    <t>哇，太好了！</t>
+  </si>
+  <si>
+    <t>5-22.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-23.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-24.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-33.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-33-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在還不需要出去。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>長滿了螞蟻，璐璐好像不怎麼吃。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-32-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>說什麼傻話呢，再不趁熱吃就涼了啊。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽用餐2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道璐璐知不知道些甚麼。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>……！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴裡好像有東西⋯⋯是一張糖果包裝紙。</t>
+  </si>
+  <si>
+    <t>5-60-1.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-61-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-62-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-17.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-修好的娃娃.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-娃娃張嘴1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-娃娃張嘴2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-糖果紙.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>修好了，再來就剩讓它可以說話</t>
-  </si>
-  <si>
-    <t>5-27.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-28.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊！這是我很喜歡的糖果！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是媽媽給我的，那時候，很快樂！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（但是璐璐的房間....沒看到這種糖果呀?倒是有好多好多金平糖....）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（她不是喜歡金平糖嗎?）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>娃娃修好了！</t>
-  </si>
-  <si>
-    <t>現在它看的到、也能說話囉。</t>
-  </si>
-  <si>
-    <t>哇，太好了！</t>
-  </si>
-  <si>
-    <t>5-22.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-23.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-24.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-33.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-33-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-3.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在還不需要出去。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>長滿了螞蟻，璐璐好像不怎麼吃。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-32-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>妹用餐.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>媽用餐.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>爸用餐.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>說什麼傻話呢，再不趁熱吃就涼了啊。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>媽用餐2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道璐璐知不知道些甚麼。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-走廊畫2.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-走廊畫3.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-走廊畫1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>……！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴裡好像有東西⋯⋯是一張糖果包裝紙。</t>
-  </si>
-  <si>
-    <t>5-60-1.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-61-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-62-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-17.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-修好的娃娃.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-娃娃張嘴1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-娃娃張嘴2.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-糖果紙.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2138,9 +2138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2178,7 +2178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2284,7 +2284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2426,7 +2426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2705,7 +2705,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2759,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2852,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3548,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3588,7 +3588,7 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3701,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4212,13 +4212,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4360,7 +4360,7 @@
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4400,7 +4400,7 @@
         <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4437,7 +4437,7 @@
         <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4457,7 +4457,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -5082,7 +5082,7 @@
         <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -5356,7 +5356,7 @@
         <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5427,7 +5427,7 @@
         <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5515,7 +5515,7 @@
         <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -5626,7 +5626,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5659,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FA71-BD22-4AA4-8490-F9C6D7366AA2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5696,10 +5696,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5795,7 +5798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190CCA5-BCDB-4EBB-B137-0C9BA45B8186}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -5834,16 +5837,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5854,16 +5857,16 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5874,13 +5877,13 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5888,13 +5891,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5905,16 +5908,16 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5925,13 +5928,13 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
         <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5942,13 +5945,13 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5959,7 +5962,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>216</v>
@@ -5976,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -6056,13 +6059,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6121,7 +6124,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -6141,7 +6144,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\six-main\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B4F60-BA65-467F-B434-147B57AA728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53EADEE-31CD-4D43-ACF8-86B5635BB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="990" windowWidth="13785" windowHeight="14490" firstSheet="38" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="510" windowWidth="15795" windowHeight="14490" firstSheet="39" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="319">
   <si>
     <t>對話內容</t>
   </si>
@@ -669,10 +669,6 @@
     <t>去問問是不是這種糖吧。</t>
   </si>
   <si>
-    <t>難受.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>嘆氣.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1142,141 +1138,333 @@
     <t>現在它看的到、也能說話囉。</t>
   </si>
   <si>
+    <t>5-22.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-23.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-24.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-33.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-33-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在還不需要出去。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>長滿了螞蟻，璐璐好像不怎麼吃。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-32-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸用餐.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>說什麼傻話呢，再不趁熱吃就涼了啊。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽用餐2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道璐璐知不知道些甚麼。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-走廊畫1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>……！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴裡好像有東西⋯⋯是一張糖果包裝紙。</t>
+  </si>
+  <si>
+    <t>5-61-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-62-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-17.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-修好的娃娃.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-娃娃張嘴1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-娃娃張嘴2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>插圖-糖果紙.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修好了，再來就剩讓它可以說話</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-激動.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-開心.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">璐璐-激動.png </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-10.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-11.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-12.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個...是你要找的糖果嗎</t>
+  </si>
+  <si>
+    <t>是金色糖果....!不要，走開....!</t>
+  </si>
+  <si>
+    <t>我不要再吃這個糖果了!我不想再看到了!</t>
+  </si>
+  <si>
+    <t>不要碰我！走開！</t>
+  </si>
+  <si>
+    <t>這顆糖....長得很像璐璐喜歡的那個。</t>
+  </si>
+  <si>
+    <t>5-60-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳要的，是它對嗎？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒錯!就是它!我找了好久，一直找不到</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找不到糖果....也找不到媽媽....</t>
+  </si>
+  <si>
+    <t>....(驚訝)</t>
+  </si>
+  <si>
+    <t>對不起，都是因為我是壞孩子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不聽怪物的話跑去跟媽媽說了，怪物才把媽媽藏起來的....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>要是我乖乖聽怪物叔叔的話，媽媽就不會被他藏起來了!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳不是壞孩子，從來不是。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳也不需要聽那怪物叔叔的話。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是....都是因為我說出來，才害媽媽不見的!</t>
+  </si>
+  <si>
+    <t>妳沒有錯，妳說出來是對的，錯的是那隻怪物....</t>
+  </si>
+  <si>
+    <t>妳的媽媽一定也不希望妳繼續聽那隻怪物的話。</t>
+  </si>
+  <si>
+    <t>媽媽....不會怪妳的....</t>
+  </si>
+  <si>
+    <t>真的嗎....?媽媽不會討厭我....?</t>
+  </si>
+  <si>
+    <t>嗯....一定....</t>
+  </si>
+  <si>
+    <t>太好了....!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(我好像...也曾經擁有過這痛苦的經歷)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(但奇怪，我好像....沒有不會討厭我的....)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(....媽媽?)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-驚恐.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-憤怒.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-11.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-12.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-13.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-14.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-15.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-16.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-17.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-18.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-19.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-20.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-21.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>哇，太好了！</t>
-  </si>
-  <si>
-    <t>5-22.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-23.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-24.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-33.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-33-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-3.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在還不需要出去。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>長滿了螞蟻，璐璐好像不怎麼吃。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-32-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>妹用餐.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>媽用餐.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>爸用餐.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>說什麼傻話呢，再不趁熱吃就涼了啊。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>媽用餐2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道璐璐知不知道些甚麼。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-走廊畫2.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-走廊畫3.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-走廊畫1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>……！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴裡好像有東西⋯⋯是一張糖果包裝紙。</t>
-  </si>
-  <si>
-    <t>5-60-1.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-61-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-62-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-17.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-修好的娃娃.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-娃娃張嘴1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-娃娃張嘴2.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>插圖-糖果紙.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>修好了，再來就剩讓它可以說話</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>微笑.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-22.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-26.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2705,7 +2893,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2947,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2852,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3308,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3137,7 +3325,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3182,10 +3370,10 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -3286,7 +3474,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3409,7 +3597,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3548,7 +3736,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3568,7 +3756,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3588,7 +3776,7 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3605,10 +3793,10 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3667,7 +3855,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3687,7 +3875,7 @@
         <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
         <v>106</v>
@@ -3701,13 +3889,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3744,7 +3932,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -3764,7 +3952,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -3817,13 +4005,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3843,7 +4031,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3903,7 +4091,7 @@
         <v>61</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3937,10 +4125,10 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3960,7 +4148,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4015,13 +4203,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4035,13 +4223,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4100,7 +4288,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4159,7 +4347,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4212,13 +4400,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4351,16 +4539,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4374,13 +4562,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4391,16 +4579,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
         <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4414,10 +4602,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4428,16 +4616,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4451,13 +4639,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4471,10 +4659,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4527,13 +4715,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4583,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -4603,7 +4791,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4645,7 +4833,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4662,10 +4850,10 @@
         <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4699,7 +4887,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4716,10 +4904,10 @@
         <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4736,10 +4924,10 @@
         <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4756,10 +4944,10 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4779,7 +4967,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -4796,10 +4984,10 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -4816,13 +5004,13 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="98.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4853,13 +5041,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4870,10 +5058,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4887,13 +5081,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4904,10 +5098,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4921,13 +5121,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4938,10 +5138,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>271</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4955,13 +5161,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4972,10 +5178,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" t="s">
+        <v>272</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -4986,10 +5198,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" t="s">
+        <v>273</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -5000,10 +5218,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>274</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -5014,10 +5238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>275</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -5031,10 +5261,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -5045,10 +5275,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>276</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -5059,10 +5295,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -5076,13 +5318,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -5096,10 +5338,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -5149,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -5166,13 +5408,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5222,13 +5464,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5239,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -5256,13 +5498,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5279,7 +5521,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5313,13 +5555,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
+        <v>305</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5330,13 +5575,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5350,13 +5598,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5367,13 +5615,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -5384,13 +5635,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
         <v>221</v>
       </c>
-      <c r="D6" t="s">
-        <v>222</v>
+      <c r="E6" t="s">
+        <v>308</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -5404,10 +5658,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -5421,13 +5675,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5438,13 +5692,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>309</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -5455,13 +5712,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -5472,13 +5732,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -5492,10 +5755,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -5509,13 +5772,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -5526,13 +5789,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>312</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -5546,10 +5812,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -5563,10 +5829,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -5583,7 +5849,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5620,13 +5886,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5640,10 +5906,13 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>313</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5659,7 +5928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FA71-BD22-4AA4-8490-F9C6D7366AA2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5696,13 +5965,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5796,10 +6065,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190CCA5-BCDB-4EBB-B137-0C9BA45B8186}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5837,16 +6106,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5857,16 +6126,16 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" t="s">
         <v>260</v>
-      </c>
-      <c r="F3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5874,16 +6143,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="E4" t="s">
+        <v>317</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5891,13 +6163,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5908,16 +6180,16 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5925,16 +6197,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>315</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5942,16 +6217,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5962,10 +6240,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -5979,23 +6257,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6042,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -6059,13 +6327,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6118,13 +6386,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -6138,13 +6406,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6158,13 +6426,16 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C41FEB-3E0B-4FCB-B05D-90C882026061}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -6184,6 +6455,229 @@
       </c>
       <c r="F1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6194,13 +6688,17 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FF1EE5-64DB-45D0-B97B-0819EE9FF4D4}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -6220,6 +6718,62 @@
       </c>
       <c r="F1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\six-main\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53EADEE-31CD-4D43-ACF8-86B5635BB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4F25A-78B0-4343-B5B1-17158AAFF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="510" windowWidth="15795" windowHeight="14490" firstSheet="39" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="39" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="322">
   <si>
     <t>對話內容</t>
   </si>
@@ -1078,10 +1078,6 @@
     <t>疑惑.png</t>
   </si>
   <si>
-    <t>無奈２.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>璐璐-開心.png</t>
   </si>
   <si>
@@ -1320,151 +1316,169 @@
     <t>這個...是你要找的糖果嗎</t>
   </si>
   <si>
+    <t>不要碰我！走開！</t>
+  </si>
+  <si>
+    <t>這顆糖....長得很像璐璐喜歡的那個。</t>
+  </si>
+  <si>
+    <t>5-60-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳要的，是它對嗎？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒錯!就是它!我找了好久，一直找不到</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找不到糖果....也找不到媽媽....</t>
+  </si>
+  <si>
+    <t>....(驚訝)</t>
+  </si>
+  <si>
+    <t>對不起，都是因為我是壞孩子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不聽怪物的話跑去跟媽媽說了，怪物才把媽媽藏起來的....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>要是我乖乖聽怪物叔叔的話，媽媽就不會被他藏起來了!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳不是壞孩子，從來不是。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳也不需要聽那怪物叔叔的話。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是....都是因為我說出來，才害媽媽不見的!</t>
+  </si>
+  <si>
+    <t>妳沒有錯，妳說出來是對的，錯的是那隻怪物....</t>
+  </si>
+  <si>
+    <t>妳的媽媽一定也不希望妳繼續聽那隻怪物的話。</t>
+  </si>
+  <si>
+    <t>媽媽....不會怪妳的....</t>
+  </si>
+  <si>
+    <t>真的嗎....?媽媽不會討厭我....?</t>
+  </si>
+  <si>
+    <t>嗯....一定....</t>
+  </si>
+  <si>
+    <t>太好了....!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(我好像...也曾經擁有過這痛苦的經歷)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(但奇怪，我好像....沒有不會討厭我的....)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(....媽媽?)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-驚恐.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐-憤怒.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-11.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-12.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-13.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-14.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-15.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-16.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-17.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-18.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-19.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-20.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-21.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇，太好了！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-22.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-26.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不要再吃這個糖果了!我不想再看到了!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-37.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-38.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-53.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>是金色糖果....!不要，走開....!</t>
-  </si>
-  <si>
-    <t>我不要再吃這個糖果了!我不想再看到了!</t>
-  </si>
-  <si>
-    <t>不要碰我！走開！</t>
-  </si>
-  <si>
-    <t>這顆糖....長得很像璐璐喜歡的那個。</t>
-  </si>
-  <si>
-    <t>5-60-2.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>妳要的，是它對嗎？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒錯!就是它!我找了好久，一直找不到</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我找不到糖果....也找不到媽媽....</t>
-  </si>
-  <si>
-    <t>....(驚訝)</t>
-  </si>
-  <si>
-    <t>對不起，都是因為我是壞孩子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不聽怪物的話跑去跟媽媽說了，怪物才把媽媽藏起來的....</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>要是我乖乖聽怪物叔叔的話，媽媽就不會被他藏起來了!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>妳不是壞孩子，從來不是。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>妳也不需要聽那怪物叔叔的話。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>可是....都是因為我說出來，才害媽媽不見的!</t>
-  </si>
-  <si>
-    <t>妳沒有錯，妳說出來是對的，錯的是那隻怪物....</t>
-  </si>
-  <si>
-    <t>妳的媽媽一定也不希望妳繼續聽那隻怪物的話。</t>
-  </si>
-  <si>
-    <t>媽媽....不會怪妳的....</t>
-  </si>
-  <si>
-    <t>真的嗎....?媽媽不會討厭我....?</t>
-  </si>
-  <si>
-    <t>嗯....一定....</t>
-  </si>
-  <si>
-    <t>太好了....!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(我好像...也曾經擁有過這痛苦的經歷)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(但奇怪，我好像....沒有不會討厭我的....)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(....媽媽?)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>璐璐-驚恐.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>璐璐-憤怒.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-11.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-12.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-13.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-14.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-15.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-16.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-17.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-18.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-19.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-20.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-21.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇，太好了！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-22.mp3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-26.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-36.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2893,7 +2907,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2961,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3040,7 +3054,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3750,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -3756,7 +3770,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3776,7 +3790,7 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3889,13 +3903,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4400,13 +4414,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
         <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4548,7 +4562,7 @@
         <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4588,7 +4602,7 @@
         <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4625,7 +4639,7 @@
         <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4645,7 +4659,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -4715,7 +4729,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -4984,7 +4998,7 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
         <v>181</v>
@@ -5064,10 +5078,10 @@
         <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5104,10 +5118,10 @@
         <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -5147,7 +5161,7 @@
         <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -5184,10 +5198,10 @@
         <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -5204,10 +5218,10 @@
         <v>171</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -5224,10 +5238,10 @@
         <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -5247,7 +5261,7 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -5281,10 +5295,10 @@
         <v>186</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -5304,7 +5318,7 @@
         <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -5324,7 +5338,7 @@
         <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -5521,7 +5535,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5561,10 +5575,10 @@
         <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5581,10 +5595,10 @@
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5604,7 +5618,7 @@
         <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5621,10 +5635,10 @@
         <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -5638,13 +5652,13 @@
         <v>121</v>
       </c>
       <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
         <v>220</v>
       </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -5661,7 +5675,7 @@
         <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -5681,7 +5695,7 @@
         <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5698,10 +5712,10 @@
         <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -5718,10 +5732,10 @@
         <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -5741,7 +5755,7 @@
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -5775,10 +5789,10 @@
         <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -5795,10 +5809,10 @@
         <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -5886,13 +5900,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -5906,13 +5920,13 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5965,13 +5979,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" t="s">
-        <v>265</v>
-      </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -6106,16 +6120,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6126,16 +6140,16 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6146,16 +6160,16 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6163,13 +6177,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6180,16 +6194,16 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6200,16 +6214,16 @@
         <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6220,16 +6234,16 @@
         <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6240,7 +6254,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
         <v>215</v>
@@ -6257,7 +6271,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -6327,13 +6341,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6349,7 +6363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -6392,7 +6406,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -6412,7 +6426,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6428,7 +6442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C41FEB-3E0B-4FCB-B05D-90C882026061}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6465,7 +6479,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6476,7 +6490,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6487,10 +6501,10 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6501,7 +6515,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6512,7 +6526,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6523,7 +6537,7 @@
         <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6534,7 +6548,7 @@
         <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6545,7 +6559,7 @@
         <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6556,7 +6570,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6567,7 +6581,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6578,7 +6592,7 @@
         <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6589,7 +6603,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6600,7 +6614,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6611,7 +6625,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6622,7 +6636,7 @@
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6633,7 +6647,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6644,7 +6658,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6655,7 +6669,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6666,7 +6680,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6677,7 +6691,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6691,13 +6705,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6728,11 +6742,14 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
+      <c r="E2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
@@ -6742,10 +6759,13 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6756,10 +6776,13 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="E4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6770,10 +6793,13 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="E5" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4F25A-78B0-4343-B5B1-17158AAFF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854303AA-C1B1-4AF6-96D2-4F031EB18517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="39" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="21" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -38,32 +38,33 @@
     <sheet name="用餐劇情" sheetId="29" r:id="rId23"/>
     <sheet name="餐桌" sheetId="30" r:id="rId24"/>
     <sheet name="鐘" sheetId="27" r:id="rId25"/>
-    <sheet name="酒吧" sheetId="41" r:id="rId26"/>
-    <sheet name="爸爸房" sheetId="24" r:id="rId27"/>
-    <sheet name="媽媽房" sheetId="25" r:id="rId28"/>
-    <sheet name="進入妹妹房" sheetId="43" r:id="rId29"/>
-    <sheet name="妹妹房開始" sheetId="39" r:id="rId30"/>
-    <sheet name="妹妹房門_內" sheetId="40" r:id="rId31"/>
-    <sheet name="乾淨繪本" sheetId="35" r:id="rId32"/>
-    <sheet name="沾糖果繪本" sheetId="34" r:id="rId33"/>
-    <sheet name="繪本交談" sheetId="44" r:id="rId34"/>
-    <sheet name="熊娃娃" sheetId="37" r:id="rId35"/>
-    <sheet name="破損娃娃" sheetId="38" r:id="rId36"/>
-    <sheet name="娃娃交談" sheetId="45" r:id="rId37"/>
-    <sheet name="修補娃(前)交談" sheetId="46" r:id="rId38"/>
-    <sheet name="修補娃(中)交談" sheetId="48" r:id="rId39"/>
-    <sheet name="修補娃(後)交談" sheetId="47" r:id="rId40"/>
-    <sheet name="小熊軟糖" sheetId="32" r:id="rId41"/>
-    <sheet name="金平糖" sheetId="36" r:id="rId42"/>
-    <sheet name="TRUE" sheetId="49" r:id="rId43"/>
-    <sheet name="BAD" sheetId="50" r:id="rId44"/>
+    <sheet name="時鐘解鎖" sheetId="51" r:id="rId26"/>
+    <sheet name="酒吧" sheetId="41" r:id="rId27"/>
+    <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
+    <sheet name="媽媽房" sheetId="25" r:id="rId29"/>
+    <sheet name="進入妹妹房" sheetId="43" r:id="rId30"/>
+    <sheet name="妹妹房開始" sheetId="39" r:id="rId31"/>
+    <sheet name="妹妹房門_內" sheetId="40" r:id="rId32"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId33"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId34"/>
+    <sheet name="繪本交談" sheetId="44" r:id="rId35"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId36"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId37"/>
+    <sheet name="娃娃交談" sheetId="45" r:id="rId38"/>
+    <sheet name="修補娃(前)交談" sheetId="46" r:id="rId39"/>
+    <sheet name="修補娃(中)交談" sheetId="48" r:id="rId40"/>
+    <sheet name="修補娃(後)交談" sheetId="47" r:id="rId41"/>
+    <sheet name="小熊軟糖" sheetId="32" r:id="rId42"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId43"/>
+    <sheet name="TRUE" sheetId="49" r:id="rId44"/>
+    <sheet name="BAD" sheetId="50" r:id="rId45"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="323">
   <si>
     <t>對話內容</t>
   </si>
@@ -1481,6 +1482,28 @@
     <t>5-1-36.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日記好像有動靜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>….</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1489,7 +1512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1796,6 +1819,12 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2223,7 +2252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2279,6 +2308,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4063,7 +4095,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4176,6 +4208,59 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5D1E6-2376-42CC-A0F6-FF82FC47CC7C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB2A1A9-1A04-4284-AD0E-B06A1C18DC2F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4255,7 +4340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B978790-E4A5-450B-85A3-96F81AD3086E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4314,7 +4399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424846E-99FB-406A-BDDC-93A99F0EACFC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4362,65 +4447,6 @@
       </c>
       <c r="E2" t="s">
         <v>149</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3260AE-9069-402A-9A27-9A26380963E1}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4515,6 +4541,65 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3260AE-9069-402A-9A27-9A26380963E1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4688,7 +4773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4747,7 +4832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4800,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -5013,7 +5098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A0450-BEA6-49F0-A571-F48F553C38A2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -5367,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -5440,7 +5525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5530,7 +5615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721FB441-221C-4499-B100-ED6048E39A21}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -5858,7 +5943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92CA503-D064-44C7-AF09-4BE275DDBEBC}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -5929,65 +6014,6 @@
         <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FA71-BD22-4AA4-8490-F9C6D7366AA2}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6078,6 +6104,65 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FA71-BD22-4AA4-8490-F9C6D7366AA2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190CCA5-BCDB-4EBB-B137-0C9BA45B8186}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6286,7 +6371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6359,11 +6444,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -6438,7 +6523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C41FEB-3E0B-4FCB-B05D-90C882026061}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -6700,7 +6785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FF1EE5-64DB-45D0-B97B-0819EE9FF4D4}">
   <dimension ref="A1:F5"/>
   <sheetViews>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854303AA-C1B1-4AF6-96D2-4F031EB18517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3152A-B670-4056-A4F3-10525231C4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="21" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,8 @@
     <sheet name="全家福" sheetId="22" r:id="rId21"/>
     <sheet name="客廳劇情" sheetId="23" r:id="rId22"/>
     <sheet name="用餐劇情" sheetId="29" r:id="rId23"/>
-    <sheet name="餐桌" sheetId="30" r:id="rId24"/>
-    <sheet name="鐘" sheetId="27" r:id="rId25"/>
+    <sheet name="鐘" sheetId="27" r:id="rId24"/>
+    <sheet name="餐桌" sheetId="30" r:id="rId25"/>
     <sheet name="時鐘解鎖" sheetId="51" r:id="rId26"/>
     <sheet name="酒吧" sheetId="41" r:id="rId27"/>
     <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
@@ -3739,7 +3739,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4011,6 +4011,123 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA307921-31E8-451F-9CD2-3E72A1D92A1B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4090,128 +4207,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB84EDE9-FAFB-4FC8-A054-1BA007A3B6BC}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5D1E6-2376-42CC-A0F6-FF82FC47CC7C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4603,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3152A-B670-4056-A4F3-10525231C4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF39A641-B8BD-43CB-813A-D0FE051730FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="27" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -42,29 +42,31 @@
     <sheet name="酒吧" sheetId="41" r:id="rId27"/>
     <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
     <sheet name="媽媽房" sheetId="25" r:id="rId29"/>
-    <sheet name="進入妹妹房" sheetId="43" r:id="rId30"/>
-    <sheet name="妹妹房開始" sheetId="39" r:id="rId31"/>
-    <sheet name="妹妹房門_內" sheetId="40" r:id="rId32"/>
-    <sheet name="乾淨繪本" sheetId="35" r:id="rId33"/>
-    <sheet name="沾糖果繪本" sheetId="34" r:id="rId34"/>
-    <sheet name="繪本交談" sheetId="44" r:id="rId35"/>
-    <sheet name="熊娃娃" sheetId="37" r:id="rId36"/>
-    <sheet name="破損娃娃" sheetId="38" r:id="rId37"/>
-    <sheet name="娃娃交談" sheetId="45" r:id="rId38"/>
-    <sheet name="修補娃(前)交談" sheetId="46" r:id="rId39"/>
-    <sheet name="修補娃(中)交談" sheetId="48" r:id="rId40"/>
-    <sheet name="修補娃(後)交談" sheetId="47" r:id="rId41"/>
-    <sheet name="小熊軟糖" sheetId="32" r:id="rId42"/>
-    <sheet name="金平糖" sheetId="36" r:id="rId43"/>
-    <sheet name="TRUE" sheetId="49" r:id="rId44"/>
-    <sheet name="BAD" sheetId="50" r:id="rId45"/>
+    <sheet name="螞蟻窩迷宮" sheetId="52" r:id="rId30"/>
+    <sheet name="工作表1" sheetId="53" r:id="rId31"/>
+    <sheet name="進入妹妹房" sheetId="43" r:id="rId32"/>
+    <sheet name="妹妹房開始" sheetId="39" r:id="rId33"/>
+    <sheet name="妹妹房門_內" sheetId="40" r:id="rId34"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId35"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId36"/>
+    <sheet name="繪本交談" sheetId="44" r:id="rId37"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId38"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId39"/>
+    <sheet name="娃娃交談" sheetId="45" r:id="rId40"/>
+    <sheet name="修補娃(前)交談" sheetId="46" r:id="rId41"/>
+    <sheet name="修補娃(中)交談" sheetId="48" r:id="rId42"/>
+    <sheet name="修補娃(後)交談" sheetId="47" r:id="rId43"/>
+    <sheet name="小熊軟糖" sheetId="32" r:id="rId44"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId45"/>
+    <sheet name="TRUE" sheetId="49" r:id="rId46"/>
+    <sheet name="BAD" sheetId="50" r:id="rId47"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="324">
   <si>
     <t>對話內容</t>
   </si>
@@ -1502,6 +1504,10 @@
       </rPr>
       <t>….</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像不是這裡</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4541,11 +4547,77 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD6033-9B88-479F-8C9E-07FB7BFE9F6D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4C3B8-E8E3-4537-9B8A-308291349FFA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3260AE-9069-402A-9A27-9A26380963E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4599,11 +4671,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4773,7 +4845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4832,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4885,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -5098,7 +5170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A0450-BEA6-49F0-A571-F48F553C38A2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -5452,7 +5524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -5525,7 +5597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5606,414 +5678,6 @@
         <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721FB441-221C-4499-B100-ED6048E39A21}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92CA503-D064-44C7-AF09-4BE275DDBEBC}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="80.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6104,6 +5768,414 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721FB441-221C-4499-B100-ED6048E39A21}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92CA503-D064-44C7-AF09-4BE275DDBEBC}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FA71-BD22-4AA4-8490-F9C6D7366AA2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6162,7 +6234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190CCA5-BCDB-4EBB-B137-0C9BA45B8186}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6371,7 +6443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6444,7 +6516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6523,7 +6595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C41FEB-3E0B-4FCB-B05D-90C882026061}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -6785,7 +6857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FF1EE5-64DB-45D0-B97B-0819EE9FF4D4}">
   <dimension ref="A1:F5"/>
   <sheetViews>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF39A641-B8BD-43CB-813A-D0FE051730FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353EA940-4109-43B1-9B0A-81F8035753D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="27" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -42,31 +42,32 @@
     <sheet name="酒吧" sheetId="41" r:id="rId27"/>
     <sheet name="爸爸房" sheetId="24" r:id="rId28"/>
     <sheet name="媽媽房" sheetId="25" r:id="rId29"/>
-    <sheet name="螞蟻窩迷宮" sheetId="52" r:id="rId30"/>
-    <sheet name="工作表1" sheetId="53" r:id="rId31"/>
-    <sheet name="進入妹妹房" sheetId="43" r:id="rId32"/>
-    <sheet name="妹妹房開始" sheetId="39" r:id="rId33"/>
-    <sheet name="妹妹房門_內" sheetId="40" r:id="rId34"/>
-    <sheet name="乾淨繪本" sheetId="35" r:id="rId35"/>
-    <sheet name="沾糖果繪本" sheetId="34" r:id="rId36"/>
-    <sheet name="繪本交談" sheetId="44" r:id="rId37"/>
-    <sheet name="熊娃娃" sheetId="37" r:id="rId38"/>
-    <sheet name="破損娃娃" sheetId="38" r:id="rId39"/>
-    <sheet name="娃娃交談" sheetId="45" r:id="rId40"/>
-    <sheet name="修補娃(前)交談" sheetId="46" r:id="rId41"/>
-    <sheet name="修補娃(中)交談" sheetId="48" r:id="rId42"/>
-    <sheet name="修補娃(後)交談" sheetId="47" r:id="rId43"/>
-    <sheet name="小熊軟糖" sheetId="32" r:id="rId44"/>
-    <sheet name="金平糖" sheetId="36" r:id="rId45"/>
-    <sheet name="TRUE" sheetId="49" r:id="rId46"/>
-    <sheet name="BAD" sheetId="50" r:id="rId47"/>
+    <sheet name="螞蟻罐" sheetId="54" r:id="rId30"/>
+    <sheet name="螞蟻窩迷宮" sheetId="52" r:id="rId31"/>
+    <sheet name="螞蟻窩糖果" sheetId="53" r:id="rId32"/>
+    <sheet name="進入妹妹房" sheetId="43" r:id="rId33"/>
+    <sheet name="妹妹房開始" sheetId="39" r:id="rId34"/>
+    <sheet name="妹妹房門_內" sheetId="40" r:id="rId35"/>
+    <sheet name="乾淨繪本" sheetId="35" r:id="rId36"/>
+    <sheet name="沾糖果繪本" sheetId="34" r:id="rId37"/>
+    <sheet name="繪本交談" sheetId="44" r:id="rId38"/>
+    <sheet name="熊娃娃" sheetId="37" r:id="rId39"/>
+    <sheet name="破損娃娃" sheetId="38" r:id="rId40"/>
+    <sheet name="娃娃交談" sheetId="45" r:id="rId41"/>
+    <sheet name="修補娃(前)交談" sheetId="46" r:id="rId42"/>
+    <sheet name="修補娃(中)交談" sheetId="48" r:id="rId43"/>
+    <sheet name="修補娃(後)交談" sheetId="47" r:id="rId44"/>
+    <sheet name="小熊軟糖" sheetId="32" r:id="rId45"/>
+    <sheet name="金平糖" sheetId="36" r:id="rId46"/>
+    <sheet name="TRUE" sheetId="49" r:id="rId47"/>
+    <sheet name="BAD" sheetId="50" r:id="rId48"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="338">
   <si>
     <t>對話內容</t>
   </si>
@@ -1508,6 +1509,59 @@
   </si>
   <si>
     <t>好像不是這裡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚訝.Png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果都融化變得黏糊糊的，好噁心！</t>
+  </si>
+  <si>
+    <t>但裡面好像有東西⋯⋯還是看一下吧。</t>
+  </si>
+  <si>
+    <t>難受.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天啊，螞蟻都往這裡來了！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-19-1.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-21.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>太好了，拿出來了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>結果就是顆糖而已....</t>
+  </si>
+  <si>
+    <t>微笑.Png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘆氣.Png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-25.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-26.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4547,14 +4601,17 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD6033-9B88-479F-8C9E-07FB7BFE9F6D}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D44234C-5B9A-42D4-8BC5-5BA1EF4183FE}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -4583,13 +4640,56 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>323</v>
+      <c r="C2" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>329</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4600,19 +4700,155 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4C3B8-E8E3-4537-9B8A-308291349FFA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD6033-9B88-479F-8C9E-07FB7BFE9F6D}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4C3B8-E8E3-4537-9B8A-308291349FFA}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3260AE-9069-402A-9A27-9A26380963E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4671,7 +4907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D80352-872C-4FC0-841D-2DDD24C6FA3E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4845,7 +5081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386404C-43F6-44C6-81F3-FE591E8EFCE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4904,7 +5140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F5F56F-9DFF-481D-9A15-9CDF107F721B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4957,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E28EFF-CC56-499A-82D3-BBFA9C1B1EE5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -5170,7 +5406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A0450-BEA6-49F0-A571-F48F553C38A2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -5524,7 +5760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36860CB8-F9AE-4263-8337-031A9CB22E73}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -5588,96 +5824,6 @@
         <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5768,6 +5914,96 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0FF26-BE13-4ABE-B742-7301125A42C3}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721FB441-221C-4499-B100-ED6048E39A21}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -6095,7 +6331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92CA503-D064-44C7-AF09-4BE275DDBEBC}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6175,7 +6411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FA71-BD22-4AA4-8490-F9C6D7366AA2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6234,7 +6470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190CCA5-BCDB-4EBB-B137-0C9BA45B8186}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6443,7 +6679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA269FA-C2FB-4943-A47E-FD675B998D27}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6516,7 +6752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26978956-2D9F-491F-8B2F-7DC778F52E7B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6595,7 +6831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C41FEB-3E0B-4FCB-B05D-90C882026061}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -6857,7 +7093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FF1EE5-64DB-45D0-B97B-0819EE9FF4D4}">
   <dimension ref="A1:F5"/>
   <sheetViews>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353EA940-4109-43B1-9B0A-81F8035753D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7E44D-CFD3-467A-B083-976ABDE18B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="340">
   <si>
     <t>對話內容</t>
   </si>
@@ -1564,6 +1564,34 @@
     <t>3-26.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>插圖-被蛀過的糖果.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Png</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1572,7 +1600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1885,6 +1913,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4757,7 +4792,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4809,17 +4844,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4839,7 +4871,7 @@
         <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Dialog.xlsx
+++ b/Assets/StreamingAssets/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\six\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7E44D-CFD3-467A-B083-976ABDE18B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE991FD9-4CCE-4C18-8FD6-752269704DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="855" windowWidth="15795" windowHeight="14490" firstSheet="43" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開場對話" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="357">
   <si>
     <t>對話內容</t>
   </si>
@@ -1338,9 +1338,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>我找不到糖果....也找不到媽媽....</t>
-  </si>
-  <si>
     <t>....(驚訝)</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
   <si>
     <t>妳也不需要聽那怪物叔叔的話。</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>可是....都是因為我說出來，才害媽媽不見的!</t>
   </si>
   <si>
     <t>妳沒有錯，妳說出來是對的，錯的是那隻怪物....</t>
@@ -1590,6 +1584,80 @@
       </rPr>
       <t>.Png</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-34.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-35.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-28.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-29.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-36.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-37-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-31.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-38.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-39.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-40-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-32.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-41-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-33.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微笑.png </t>
+  </si>
+  <si>
+    <t>我找不到糖果....也找不到媽媽....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是....都是因為我說出來，才害媽媽不見的....</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-27-2.mp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-30-2.mp3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4340,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -4676,13 +4744,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4696,13 +4764,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
         <v>325</v>
       </c>
-      <c r="D3" t="s">
-        <v>327</v>
-      </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -4716,13 +4784,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
         <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -4772,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -4791,7 +4859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4C3B8-E8E3-4537-9B8A-308291349FFA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4828,13 +4896,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" t="s">
         <v>332</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>336</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -4848,10 +4916,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4862,16 +4930,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" t="s">
         <v>333</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>335</v>
       </c>
-      <c r="E4" t="s">
-        <v>337</v>
-      </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6083,7 +6151,7 @@
         <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -6103,7 +6171,7 @@
         <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6143,7 +6211,7 @@
         <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -6163,7 +6231,7 @@
         <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -6220,7 +6288,7 @@
         <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -6240,7 +6308,7 @@
         <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -6260,7 +6328,7 @@
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -6317,7 +6385,7 @@
         <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -6431,7 +6499,7 @@
         <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6585,13 +6653,13 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
         <v>260</v>
@@ -6645,7 +6713,7 @@
         <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
         <v>262</v>
@@ -6665,7 +6733,7 @@
         <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
         <v>262</v>
@@ -6867,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C41FEB-3E0B-4FCB-B05D-90C882026061}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6906,6 +6974,12 @@
       <c r="C2" t="s">
         <v>279</v>
       </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
@@ -6916,6 +6990,12 @@
       </c>
       <c r="C3" t="s">
         <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6928,8 +7008,11 @@
       <c r="C4" t="s">
         <v>282</v>
       </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6940,7 +7023,13 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>353</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6951,7 +7040,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6962,7 +7054,13 @@
         <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6973,7 +7071,13 @@
         <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6984,7 +7088,13 @@
         <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6995,7 +7105,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7006,7 +7122,13 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7017,7 +7139,13 @@
         <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>354</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7028,7 +7156,13 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7039,7 +7173,13 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="D14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7050,7 +7190,13 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7061,10 +7207,16 @@
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>292</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7072,21 +7224,33 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>293</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>294</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7094,10 +7258,13 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7105,10 +7272,13 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>296</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7116,7 +7286,10 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>297</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7173,7 +7346,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7184,13 +7357,13 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7201,13 +7374,13 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7221,10 +7394,10 @@
         <v>278</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
